--- a/logs.xlsx
+++ b/logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +421,7 @@
         <v>RODEL</v>
       </c>
       <c r="C2" t="str">
-        <v>Mon Oct 07 2024 08:29:58 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 07:01:09</v>
       </c>
     </row>
     <row r="3">
@@ -432,7 +432,7 @@
         <v>RODEL</v>
       </c>
       <c r="C3" t="str">
-        <v>Mon Oct 07 2024 17:06:58 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 18:04:31</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>RODEL</v>
       </c>
       <c r="C4" t="str">
-        <v>Tue Oct 08 2024 07:20:12 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 07:32:06</v>
       </c>
     </row>
     <row r="5">
@@ -454,7 +454,7 @@
         <v>RODEL</v>
       </c>
       <c r="C5" t="str">
-        <v>Tue Oct 08 2024 17:07:02 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 17:03:26</v>
       </c>
     </row>
     <row r="6">
@@ -465,7 +465,7 @@
         <v>RODEL</v>
       </c>
       <c r="C6" t="str">
-        <v>Wed Oct 09 2024 07:01:09 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 07:37:40</v>
       </c>
     </row>
     <row r="7">
@@ -476,7 +476,7 @@
         <v>RODEL</v>
       </c>
       <c r="C7" t="str">
-        <v>Wed Oct 09 2024 18:04:31 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 17:17:56</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>RODEL</v>
       </c>
       <c r="C8" t="str">
-        <v>Thu Oct 10 2024 07:32:06 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 08:32:11</v>
       </c>
     </row>
     <row r="9">
@@ -498,7 +498,7 @@
         <v>RODEL</v>
       </c>
       <c r="C9" t="str">
-        <v>Thu Oct 10 2024 14:31:08 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 08:40:03</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>DEL</v>
       </c>
       <c r="C10" t="str">
-        <v>Mon Oct 07 2024 09:06:52 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 08:47:19</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
         <v>DEL</v>
       </c>
       <c r="C11" t="str">
-        <v>Mon Oct 07 2024 18:02:30 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 18:03:59</v>
       </c>
     </row>
     <row r="12">
@@ -531,7 +531,7 @@
         <v>DEL</v>
       </c>
       <c r="C12" t="str">
-        <v>Tue Oct 08 2024 10:37:32 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 08:50:15</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>DEL</v>
       </c>
       <c r="C13" t="str">
-        <v>Tue Oct 08 2024 18:00:59 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 17:19:36</v>
       </c>
     </row>
     <row r="14">
@@ -553,7 +553,7 @@
         <v>DEL</v>
       </c>
       <c r="C14" t="str">
-        <v>Wed Oct 09 2024 08:47:19 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 09:08:12</v>
       </c>
     </row>
     <row r="15">
@@ -564,62 +564,62 @@
         <v>DEL</v>
       </c>
       <c r="C15" t="str">
-        <v>Wed Oct 09 2024 18:03:59 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 18:10:19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>1011</v>
+        <v>902</v>
       </c>
       <c r="B16" t="str">
-        <v>DEL</v>
+        <v>ANDY</v>
       </c>
       <c r="C16" t="str">
-        <v>Thu Oct 10 2024 08:50:15 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 14:03:52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>1011</v>
+        <v>5001</v>
       </c>
       <c r="B17" t="str">
-        <v>DEL</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C17" t="str">
-        <v>Thu Oct 10 2024 15:10:25 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 09:12:02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>902</v>
+        <v>5001</v>
       </c>
       <c r="B18" t="str">
-        <v>ANDY</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C18" t="str">
-        <v>Mon Oct 07 2024 16:52:19 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 17:41:13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>1019</v>
+        <v>5001</v>
       </c>
       <c r="B19" t="str">
-        <v>DENNIS</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C19" t="str">
-        <v>Mon Oct 07 2024 10:30:47 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 08:38:38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>1019</v>
+        <v>5001</v>
       </c>
       <c r="B20" t="str">
-        <v>DENNIS</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C20" t="str">
-        <v>Mon Oct 07 2024 11:34:33 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 20:40:46</v>
       </c>
     </row>
     <row r="21">
@@ -630,7 +630,7 @@
         <v>CRISTINE</v>
       </c>
       <c r="C21" t="str">
-        <v>Mon Oct 07 2024 09:01:12 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 08:48:32</v>
       </c>
     </row>
     <row r="22">
@@ -641,139 +641,139 @@
         <v>CRISTINE</v>
       </c>
       <c r="C22" t="str">
-        <v>Mon Oct 07 2024 18:14:31 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 19:43:55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>5001</v>
+        <v>4015</v>
       </c>
       <c r="B23" t="str">
-        <v>CRISTINE</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C23" t="str">
-        <v>Tue Oct 08 2024 08:50:27 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 09:54:00</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>5001</v>
+        <v>4015</v>
       </c>
       <c r="B24" t="str">
-        <v>CRISTINE</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C24" t="str">
-        <v>Tue Oct 08 2024 18:08:03 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 17:59:59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>5001</v>
+        <v>4015</v>
       </c>
       <c r="B25" t="str">
-        <v>CRISTINE</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C25" t="str">
-        <v>Wed Oct 09 2024 09:12:02 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 09:48:13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>5001</v>
+        <v>4015</v>
       </c>
       <c r="B26" t="str">
-        <v>CRISTINE</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C26" t="str">
-        <v>Wed Oct 09 2024 17:41:13 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 18:59:32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>5001</v>
+        <v>4015</v>
       </c>
       <c r="B27" t="str">
-        <v>CRISTINE</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C27" t="str">
-        <v>Thu Oct 10 2024 08:38:38 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 09:45:46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>5001</v>
+        <v>4015</v>
       </c>
       <c r="B28" t="str">
-        <v>CRISTINE</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C28" t="str">
-        <v>Thu Oct 10 2024 15:19:04 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 18:00:49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>4015</v>
+        <v>908</v>
       </c>
       <c r="B29" t="str">
-        <v>AKEYLA</v>
+        <v>LEO</v>
       </c>
       <c r="C29" t="str">
-        <v>Tue Oct 08 2024 09:33:30 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 07:54:23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>4015</v>
+        <v>908</v>
       </c>
       <c r="B30" t="str">
-        <v>AKEYLA</v>
+        <v>LEO</v>
       </c>
       <c r="C30" t="str">
-        <v>Tue Oct 08 2024 18:01:03 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 18:03:34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>4015</v>
+        <v>908</v>
       </c>
       <c r="B31" t="str">
-        <v>AKEYLA</v>
+        <v>LEO</v>
       </c>
       <c r="C31" t="str">
-        <v>Wed Oct 09 2024 09:54:00 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 13:58:23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>4015</v>
+        <v>908</v>
       </c>
       <c r="B32" t="str">
-        <v>AKEYLA</v>
+        <v>LEO</v>
       </c>
       <c r="C32" t="str">
-        <v>Wed Oct 09 2024 17:59:59 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 16:17:15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>4015</v>
+        <v>908</v>
       </c>
       <c r="B33" t="str">
-        <v>AKEYLA</v>
+        <v>LEO</v>
       </c>
       <c r="C33" t="str">
-        <v>Thu Oct 10 2024 09:48:13 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 18:07:38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>4015</v>
+        <v>908</v>
       </c>
       <c r="B34" t="str">
-        <v>AKEYLA</v>
+        <v>LEO</v>
       </c>
       <c r="C34" t="str">
-        <v>Thu Oct 10 2024 14:08:17 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-13 07:54:37</v>
       </c>
     </row>
     <row r="35">
@@ -784,7 +784,7 @@
         <v>LEO</v>
       </c>
       <c r="C35" t="str">
-        <v>Wed Oct 09 2024 07:54:23 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-13 18:03:44</v>
       </c>
     </row>
     <row r="36">
@@ -795,18 +795,18 @@
         <v>LEO</v>
       </c>
       <c r="C36" t="str">
-        <v>Wed Oct 09 2024 18:03:34 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 07:56:00</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>908</v>
+        <v>5003</v>
       </c>
       <c r="B37" t="str">
-        <v>LEO</v>
+        <v>FRANCIS</v>
       </c>
       <c r="C37" t="str">
-        <v>Thu Oct 10 2024 13:58:23 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 09:53:06</v>
       </c>
     </row>
     <row r="38">
@@ -817,7 +817,7 @@
         <v>FRANCIS</v>
       </c>
       <c r="C38" t="str">
-        <v>Mon Oct 07 2024 09:47:40 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 13:52:04</v>
       </c>
     </row>
     <row r="39">
@@ -828,51 +828,51 @@
         <v>FRANCIS</v>
       </c>
       <c r="C39" t="str">
-        <v>Mon Oct 07 2024 14:33:09 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 13:50:51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>5003</v>
+        <v>5005</v>
       </c>
       <c r="B40" t="str">
-        <v>FRANCIS</v>
+        <v>ERIKA</v>
       </c>
       <c r="C40" t="str">
-        <v>Tue Oct 08 2024 10:12:30 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 10:03:27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>5003</v>
+        <v>5005</v>
       </c>
       <c r="B41" t="str">
-        <v>FRANCIS</v>
+        <v>ERIKA</v>
       </c>
       <c r="C41" t="str">
-        <v>Tue Oct 08 2024 18:51:40 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 18:52:29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>5003</v>
+        <v>5005</v>
       </c>
       <c r="B42" t="str">
-        <v>FRANCIS</v>
+        <v>ERIKA</v>
       </c>
       <c r="C42" t="str">
-        <v>Wed Oct 09 2024 09:53:06 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 09:26:32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>5003</v>
+        <v>5005</v>
       </c>
       <c r="B43" t="str">
-        <v>FRANCIS</v>
+        <v>ERIKA</v>
       </c>
       <c r="C43" t="str">
-        <v>Wed Oct 09 2024 13:52:04 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 14:37:54</v>
       </c>
     </row>
     <row r="44">
@@ -883,7 +883,7 @@
         <v>ERIKA</v>
       </c>
       <c r="C44" t="str">
-        <v>Mon Oct 07 2024 09:51:16 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 13:16:49</v>
       </c>
     </row>
     <row r="45">
@@ -894,2245 +894,1882 @@
         <v>ERIKA</v>
       </c>
       <c r="C45" t="str">
-        <v>Mon Oct 07 2024 18:54:40 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 19:00:02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>5005</v>
+        <v>5006</v>
       </c>
       <c r="B46" t="str">
-        <v>ERIKA</v>
+        <v>DENNY</v>
       </c>
       <c r="C46" t="str">
-        <v>Tue Oct 08 2024 14:52:31 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 07:28:41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>5005</v>
+        <v>5006</v>
       </c>
       <c r="B47" t="str">
-        <v>ERIKA</v>
+        <v>DENNY</v>
       </c>
       <c r="C47" t="str">
-        <v>Tue Oct 08 2024 17:37:56 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 12:50:04</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>5005</v>
+        <v>5006</v>
       </c>
       <c r="B48" t="str">
-        <v>ERIKA</v>
+        <v>DENNY</v>
       </c>
       <c r="C48" t="str">
-        <v>Wed Oct 09 2024 10:03:27 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 10:55:35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>5005</v>
+        <v>5006</v>
       </c>
       <c r="B49" t="str">
-        <v>ERIKA</v>
+        <v>DENNY</v>
       </c>
       <c r="C49" t="str">
-        <v>Wed Oct 09 2024 18:52:29 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 16:11:02</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>5005</v>
+        <v>5006</v>
       </c>
       <c r="B50" t="str">
-        <v>ERIKA</v>
+        <v>DENNY</v>
       </c>
       <c r="C50" t="str">
-        <v>Thu Oct 10 2024 09:26:32 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 07:36:27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>5005</v>
+        <v>5006</v>
       </c>
       <c r="B51" t="str">
-        <v>ERIKA</v>
+        <v>DENNY</v>
       </c>
       <c r="C51" t="str">
-        <v>Thu Oct 10 2024 14:37:54 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 07:36:30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>5006</v>
+        <v>5007</v>
       </c>
       <c r="B52" t="str">
-        <v>DENNY</v>
+        <v>PAUL</v>
       </c>
       <c r="C52" t="str">
-        <v>Mon Oct 07 2024 07:56:49 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 16:45:16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>5006</v>
+        <v>5008</v>
       </c>
       <c r="B53" t="str">
-        <v>DENNY</v>
+        <v>MILES</v>
       </c>
       <c r="C53" t="str">
-        <v>Mon Oct 07 2024 15:00:58 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 07:34:28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>5006</v>
+        <v>5008</v>
       </c>
       <c r="B54" t="str">
-        <v>DENNY</v>
+        <v>MILES</v>
       </c>
       <c r="C54" t="str">
-        <v>Tue Oct 08 2024 07:48:39 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 17:01:49</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>5006</v>
+        <v>5008</v>
       </c>
       <c r="B55" t="str">
-        <v>DENNY</v>
+        <v>MILES</v>
       </c>
       <c r="C55" t="str">
-        <v>Tue Oct 08 2024 17:04:34 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 07:58:14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>5006</v>
+        <v>5008</v>
       </c>
       <c r="B56" t="str">
-        <v>DENNY</v>
+        <v>MILES</v>
       </c>
       <c r="C56" t="str">
-        <v>Wed Oct 09 2024 07:28:41 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 17:02:19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>5006</v>
+        <v>5008</v>
       </c>
       <c r="B57" t="str">
-        <v>DENNY</v>
+        <v>MILES</v>
       </c>
       <c r="C57" t="str">
-        <v>Wed Oct 09 2024 12:50:04 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 07:21:50</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>5006</v>
+        <v>5008</v>
       </c>
       <c r="B58" t="str">
-        <v>DENNY</v>
+        <v>MILES</v>
       </c>
       <c r="C58" t="str">
-        <v>Thu Oct 10 2024 10:55:35 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 08:02:49</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>5006</v>
+        <v>4011</v>
       </c>
       <c r="B59" t="str">
-        <v>DENNY</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C59" t="str">
-        <v>Thu Oct 10 2024 14:13:04 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 07:36:10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>5007</v>
+        <v>4011</v>
       </c>
       <c r="B60" t="str">
-        <v>PAUL</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C60" t="str">
-        <v>Mon Oct 07 2024 10:19:08 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 13:17:20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>5007</v>
+        <v>4011</v>
       </c>
       <c r="B61" t="str">
-        <v>PAUL</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C61" t="str">
-        <v>Mon Oct 07 2024 17:35:47 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 11:21:14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>5008</v>
+        <v>4011</v>
       </c>
       <c r="B62" t="str">
-        <v>MILES</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C62" t="str">
-        <v>Mon Oct 07 2024 07:25:50 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 14:59:19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>5008</v>
+        <v>4011</v>
       </c>
       <c r="B63" t="str">
-        <v>MILES</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C63" t="str">
-        <v>Mon Oct 07 2024 17:01:41 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 10:46:23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>5008</v>
+        <v>4011</v>
       </c>
       <c r="B64" t="str">
-        <v>MILES</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C64" t="str">
-        <v>Tue Oct 08 2024 07:59:23 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 16:57:07</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>5008</v>
+        <v>4011</v>
       </c>
       <c r="B65" t="str">
-        <v>MILES</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C65" t="str">
-        <v>Tue Oct 08 2024 17:02:47 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 07:58:11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>5008</v>
+        <v>4008</v>
       </c>
       <c r="B66" t="str">
-        <v>MILES</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C66" t="str">
-        <v>Wed Oct 09 2024 07:34:28 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 07:46:17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>5008</v>
+        <v>4008</v>
       </c>
       <c r="B67" t="str">
-        <v>MILES</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C67" t="str">
-        <v>Wed Oct 09 2024 17:01:49 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 10:29:37</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>5008</v>
+        <v>4008</v>
       </c>
       <c r="B68" t="str">
-        <v>MILES</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C68" t="str">
-        <v>Thu Oct 10 2024 07:58:14 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 16:17:31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>5008</v>
+        <v>4008</v>
       </c>
       <c r="B69" t="str">
-        <v>MILES</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C69" t="str">
-        <v>Thu Oct 10 2024 13:33:04 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 16:17:34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>4011</v>
+        <v>4008</v>
       </c>
       <c r="B70" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C70" t="str">
-        <v>Mon Oct 07 2024 10:16:58 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 13:15:46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>4011</v>
+        <v>4008</v>
       </c>
       <c r="B71" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C71" t="str">
-        <v>Mon Oct 07 2024 16:42:52 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 13:34:51</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>4011</v>
+        <v>4008</v>
       </c>
       <c r="B72" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C72" t="str">
-        <v>Tue Oct 08 2024 12:07:51 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 07:48:47</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="B73" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>HUBERT LOPEZ</v>
       </c>
       <c r="C73" t="str">
-        <v>Tue Oct 08 2024 13:11:52 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 13:05:33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="B74" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>HUBERT LOPEZ</v>
       </c>
       <c r="C74" t="str">
-        <v>Wed Oct 09 2024 07:36:10 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 19:07:44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="B75" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>HUBERT LOPEZ</v>
       </c>
       <c r="C75" t="str">
-        <v>Wed Oct 09 2024 13:17:20 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 18:51:01</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="B76" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>HUBERT LOPEZ</v>
       </c>
       <c r="C76" t="str">
-        <v>Thu Oct 10 2024 11:21:14 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 18:55:04</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>4011</v>
+        <v>5010</v>
       </c>
       <c r="B77" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>CORTEJO</v>
       </c>
       <c r="C77" t="str">
-        <v>Thu Oct 10 2024 14:59:19 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 06:57:26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>4008</v>
+        <v>5010</v>
       </c>
       <c r="B78" t="str">
-        <v>MAECHELLE</v>
+        <v>CORTEJO</v>
       </c>
       <c r="C78" t="str">
-        <v>Mon Oct 07 2024 07:41:46 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 17:06:56</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>4008</v>
+        <v>5010</v>
       </c>
       <c r="B79" t="str">
-        <v>MAECHELLE</v>
+        <v>CORTEJO</v>
       </c>
       <c r="C79" t="str">
-        <v>Mon Oct 07 2024 16:58:49 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 06:49:09</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>4008</v>
+        <v>5010</v>
       </c>
       <c r="B80" t="str">
-        <v>MAECHELLE</v>
+        <v>CORTEJO</v>
       </c>
       <c r="C80" t="str">
-        <v>Tue Oct 08 2024 07:45:58 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 17:00:05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>4008</v>
+        <v>5010</v>
       </c>
       <c r="B81" t="str">
-        <v>MAECHELLE</v>
+        <v>CORTEJO</v>
       </c>
       <c r="C81" t="str">
-        <v>Tue Oct 08 2024 14:58:57 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 06:43:03</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>4008</v>
+        <v>5010</v>
       </c>
       <c r="B82" t="str">
-        <v>MAECHELLE</v>
+        <v>CORTEJO</v>
       </c>
       <c r="C82" t="str">
-        <v>Wed Oct 09 2024 07:46:17 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 17:00:48</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>4008</v>
+        <v>5010</v>
       </c>
       <c r="B83" t="str">
-        <v>MAECHELLE</v>
+        <v>CORTEJO</v>
       </c>
       <c r="C83" t="str">
-        <v>Wed Oct 09 2024 10:29:37 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 06:50:42</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>4009</v>
+        <v>5011</v>
       </c>
       <c r="B84" t="str">
-        <v>HUBERT LOPEZ</v>
+        <v>VINCENT TAN</v>
       </c>
       <c r="C84" t="str">
-        <v>Mon Oct 07 2024 15:49:40 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 12:18:31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>4009</v>
+        <v>5011</v>
       </c>
       <c r="B85" t="str">
-        <v>HUBERT LOPEZ</v>
+        <v>VINCENT TAN</v>
       </c>
       <c r="C85" t="str">
-        <v>Mon Oct 07 2024 18:21:51 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 17:06:59</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>4009</v>
+        <v>5011</v>
       </c>
       <c r="B86" t="str">
-        <v>HUBERT LOPEZ</v>
+        <v>VINCENT TAN</v>
       </c>
       <c r="C86" t="str">
-        <v>Tue Oct 08 2024 11:27:38 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 06:43:39</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>4009</v>
+        <v>5011</v>
       </c>
       <c r="B87" t="str">
-        <v>HUBERT LOPEZ</v>
+        <v>VINCENT TAN</v>
       </c>
       <c r="C87" t="str">
-        <v>Tue Oct 08 2024 18:07:21 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 17:00:20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>4009</v>
+        <v>5011</v>
       </c>
       <c r="B88" t="str">
-        <v>HUBERT LOPEZ</v>
+        <v>VINCENT TAN</v>
       </c>
       <c r="C88" t="str">
-        <v>Thu Oct 10 2024 13:05:33 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 07:16:24</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>5010</v>
+        <v>5011</v>
       </c>
       <c r="B89" t="str">
-        <v>CORTEJO</v>
+        <v>VINCENT TAN</v>
       </c>
       <c r="C89" t="str">
-        <v>Mon Oct 07 2024 07:08:37 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 17:00:54</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>5010</v>
+        <v>5011</v>
       </c>
       <c r="B90" t="str">
-        <v>CORTEJO</v>
+        <v>VINCENT TAN</v>
       </c>
       <c r="C90" t="str">
-        <v>Mon Oct 07 2024 17:00:52 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 07:12:32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>5010</v>
+        <v>5011</v>
       </c>
       <c r="B91" t="str">
-        <v>CORTEJO</v>
+        <v>VINCENT TAN</v>
       </c>
       <c r="C91" t="str">
-        <v>Tue Oct 08 2024 06:45:42 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 07:56:46</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>5010</v>
+        <v>1025</v>
       </c>
       <c r="B92" t="str">
-        <v>CORTEJO</v>
+        <v>Lyndon</v>
       </c>
       <c r="C92" t="str">
-        <v>Tue Oct 08 2024 17:00:14 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 08:00:10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>5010</v>
+        <v>1025</v>
       </c>
       <c r="B93" t="str">
-        <v>CORTEJO</v>
+        <v>Lyndon</v>
       </c>
       <c r="C93" t="str">
-        <v>Wed Oct 09 2024 06:57:26 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 14:39:04</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>5010</v>
+        <v>1025</v>
       </c>
       <c r="B94" t="str">
-        <v>CORTEJO</v>
+        <v>Lyndon</v>
       </c>
       <c r="C94" t="str">
-        <v>Wed Oct 09 2024 17:06:56 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 07:28:36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>5010</v>
+        <v>1025</v>
       </c>
       <c r="B95" t="str">
-        <v>CORTEJO</v>
+        <v>Lyndon</v>
       </c>
       <c r="C95" t="str">
-        <v>Thu Oct 10 2024 06:49:09 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 15:56:51</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>5010</v>
+        <v>1025</v>
       </c>
       <c r="B96" t="str">
-        <v>CORTEJO</v>
+        <v>Lyndon</v>
       </c>
       <c r="C96" t="str">
-        <v>Thu Oct 10 2024 07:16:46 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 08:08:02</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>5011</v>
+        <v>1025</v>
       </c>
       <c r="B97" t="str">
-        <v>VINCENT</v>
+        <v>Lyndon</v>
       </c>
       <c r="C97" t="str">
-        <v>Mon Oct 07 2024 07:07:18 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 15:19:30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>5011</v>
+        <v>1025</v>
       </c>
       <c r="B98" t="str">
-        <v>VINCENT</v>
+        <v>Lyndon</v>
       </c>
       <c r="C98" t="str">
-        <v>Mon Oct 07 2024 17:01:06 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 07:47:25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>5011</v>
+        <v>1027</v>
       </c>
       <c r="B99" t="str">
-        <v>VINCENT</v>
+        <v>Lordemil</v>
       </c>
       <c r="C99" t="str">
-        <v>Tue Oct 08 2024 07:00:38 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 12:20:46</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>5011</v>
+        <v>1027</v>
       </c>
       <c r="B100" t="str">
-        <v>VINCENT</v>
+        <v>Lordemil</v>
       </c>
       <c r="C100" t="str">
-        <v>Tue Oct 08 2024 17:03:13 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 19:07:41</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>5011</v>
+        <v>1027</v>
       </c>
       <c r="B101" t="str">
-        <v>VINCENT</v>
+        <v>Lordemil</v>
       </c>
       <c r="C101" t="str">
-        <v>Wed Oct 09 2024 12:18:31 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 12:45:38</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>5011</v>
+        <v>1027</v>
       </c>
       <c r="B102" t="str">
-        <v>VINCENT</v>
+        <v>Lordemil</v>
       </c>
       <c r="C102" t="str">
-        <v>Wed Oct 09 2024 17:06:59 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 14:37:22</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>5011</v>
+        <v>1027</v>
       </c>
       <c r="B103" t="str">
-        <v>VINCENT</v>
+        <v>Lordemil</v>
       </c>
       <c r="C103" t="str">
-        <v>Thu Oct 10 2024 06:43:39 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 11:52:05</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>5011</v>
+        <v>1027</v>
       </c>
       <c r="B104" t="str">
-        <v>VINCENT</v>
+        <v>Lordemil</v>
       </c>
       <c r="C104" t="str">
-        <v>Thu Oct 10 2024 14:28:13 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 21:00:58</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B105" t="str">
-        <v>Lyndon</v>
+        <v>Jane</v>
       </c>
       <c r="C105" t="str">
-        <v>Wed Oct 09 2024 08:00:10 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 07:42:16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B106" t="str">
-        <v>Lyndon</v>
+        <v>Jane</v>
       </c>
       <c r="C106" t="str">
-        <v>Wed Oct 09 2024 14:39:04 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 15:28:39</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B107" t="str">
-        <v>Lyndon</v>
+        <v>Jane</v>
       </c>
       <c r="C107" t="str">
-        <v>Thu Oct 10 2024 07:28:36 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 07:59:19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B108" t="str">
-        <v>Lyndon</v>
+        <v>Jane</v>
       </c>
       <c r="C108" t="str">
-        <v>Thu Oct 10 2024 14:47:48 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 14:31:09</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B109" t="str">
-        <v>Lordemil</v>
+        <v>Jane</v>
       </c>
       <c r="C109" t="str">
-        <v>Mon Oct 07 2024 14:05:38 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 07:41:16</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B110" t="str">
-        <v>Lordemil</v>
+        <v>Jane</v>
       </c>
       <c r="C110" t="str">
-        <v>Mon Oct 07 2024 19:18:48 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 08:37:01</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>1027</v>
+        <v>5012</v>
       </c>
       <c r="B111" t="str">
-        <v>Lordemil</v>
+        <v>HARRY</v>
       </c>
       <c r="C111" t="str">
-        <v>Tue Oct 08 2024 07:07:11 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 06:42:58</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>1027</v>
+        <v>5012</v>
       </c>
       <c r="B112" t="str">
-        <v>Lordemil</v>
+        <v>HARRY</v>
       </c>
       <c r="C112" t="str">
-        <v>Tue Oct 08 2024 19:50:06 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 17:07:07</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>1027</v>
+        <v>5012</v>
       </c>
       <c r="B113" t="str">
-        <v>Lordemil</v>
+        <v>HARRY</v>
       </c>
       <c r="C113" t="str">
-        <v>Wed Oct 09 2024 12:20:46 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 06:58:23</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>1027</v>
+        <v>5012</v>
       </c>
       <c r="B114" t="str">
-        <v>Lordemil</v>
+        <v>HARRY</v>
       </c>
       <c r="C114" t="str">
-        <v>Wed Oct 09 2024 19:07:41 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 17:00:01</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>1027</v>
+        <v>5012</v>
       </c>
       <c r="B115" t="str">
-        <v>Lordemil</v>
+        <v>HARRY</v>
       </c>
       <c r="C115" t="str">
-        <v>Thu Oct 10 2024 12:45:38 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 06:46:41</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>1027</v>
+        <v>5012</v>
       </c>
       <c r="B116" t="str">
-        <v>Lordemil</v>
+        <v>HARRY</v>
       </c>
       <c r="C116" t="str">
-        <v>Thu Oct 10 2024 14:37:22 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 17:00:51</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>1024</v>
+        <v>5012</v>
       </c>
       <c r="B117" t="str">
-        <v>Jane</v>
+        <v>HARRY</v>
       </c>
       <c r="C117" t="str">
-        <v>Mon Oct 07 2024 08:36:25 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 06:49:17</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>1024</v>
+        <v>5012</v>
       </c>
       <c r="B118" t="str">
-        <v>Jane</v>
+        <v>HARRY</v>
       </c>
       <c r="C118" t="str">
-        <v>Tue Oct 08 2024 07:53:53 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 06:49:19</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>1024</v>
+        <v>2055</v>
       </c>
       <c r="B119" t="str">
-        <v>Jane</v>
+        <v>PAULA</v>
       </c>
       <c r="C119" t="str">
-        <v>Tue Oct 08 2024 15:42:54 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 08:16:46</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>1024</v>
+        <v>2055</v>
       </c>
       <c r="B120" t="str">
-        <v>Jane</v>
+        <v>PAULA</v>
       </c>
       <c r="C120" t="str">
-        <v>Wed Oct 09 2024 07:42:16 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 14:56:56</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>1024</v>
+        <v>2055</v>
       </c>
       <c r="B121" t="str">
-        <v>Jane</v>
+        <v>PAULA</v>
       </c>
       <c r="C121" t="str">
-        <v>Wed Oct 09 2024 15:28:39 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 10:04:53</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>5012</v>
+        <v>2055</v>
       </c>
       <c r="B122" t="str">
-        <v>HARRY</v>
+        <v>PAULA</v>
       </c>
       <c r="C122" t="str">
-        <v>Mon Oct 07 2024 07:02:09 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 16:59:30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>5012</v>
+        <v>2055</v>
       </c>
       <c r="B123" t="str">
-        <v>HARRY</v>
+        <v>PAULA</v>
       </c>
       <c r="C123" t="str">
-        <v>Mon Oct 07 2024 17:00:48 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 07:35:03</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>5012</v>
+        <v>2055</v>
       </c>
       <c r="B124" t="str">
-        <v>HARRY</v>
+        <v>PAULA</v>
       </c>
       <c r="C124" t="str">
-        <v>Tue Oct 08 2024 06:50:41 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 11:45:48</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>5012</v>
+        <v>2055</v>
       </c>
       <c r="B125" t="str">
-        <v>HARRY</v>
+        <v>PAULA</v>
       </c>
       <c r="C125" t="str">
-        <v>Tue Oct 08 2024 17:00:04 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 06:39:03</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>5012</v>
+        <v>1016</v>
       </c>
       <c r="B126" t="str">
-        <v>HARRY</v>
+        <v>BONIFACIO</v>
       </c>
       <c r="C126" t="str">
-        <v>Wed Oct 09 2024 06:42:58 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 08:56:02</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>5012</v>
+        <v>1016</v>
       </c>
       <c r="B127" t="str">
-        <v>HARRY</v>
+        <v>BONIFACIO</v>
       </c>
       <c r="C127" t="str">
-        <v>Wed Oct 09 2024 17:07:07 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 14:06:32</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>5012</v>
+        <v>1016</v>
       </c>
       <c r="B128" t="str">
-        <v>HARRY</v>
+        <v>BONIFACIO</v>
       </c>
       <c r="C128" t="str">
-        <v>Thu Oct 10 2024 06:58:23 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 08:50:08</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>5012</v>
+        <v>1016</v>
       </c>
       <c r="B129" t="str">
-        <v>HARRY</v>
+        <v>BONIFACIO</v>
       </c>
       <c r="C129" t="str">
-        <v>Thu Oct 10 2024 06:58:26 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 17:56:04</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2055</v>
+        <v>1016</v>
       </c>
       <c r="B130" t="str">
-        <v>PAULA</v>
+        <v>BONIFACIO</v>
       </c>
       <c r="C130" t="str">
-        <v>Tue Oct 08 2024 07:11:27 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 09:37:12</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2055</v>
+        <v>1016</v>
       </c>
       <c r="B131" t="str">
-        <v>PAULA</v>
+        <v>BONIFACIO</v>
       </c>
       <c r="C131" t="str">
-        <v>Tue Oct 08 2024 16:28:00 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 16:33:16</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2055</v>
+        <v>1021</v>
       </c>
       <c r="B132" t="str">
-        <v>PAULA</v>
+        <v>ERWYN</v>
       </c>
       <c r="C132" t="str">
-        <v>Wed Oct 09 2024 08:16:46 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 12:04:35</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2055</v>
+        <v>1021</v>
       </c>
       <c r="B133" t="str">
-        <v>PAULA</v>
+        <v>ERWYN</v>
       </c>
       <c r="C133" t="str">
-        <v>Wed Oct 09 2024 14:56:56 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 19:01:08</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2055</v>
+        <v>1021</v>
       </c>
       <c r="B134" t="str">
-        <v>PAULA</v>
+        <v>ERWYN</v>
       </c>
       <c r="C134" t="str">
-        <v>Thu Oct 10 2024 10:04:53 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 09:59:06</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2055</v>
+        <v>1021</v>
       </c>
       <c r="B135" t="str">
-        <v>PAULA</v>
+        <v>ERWYN</v>
       </c>
       <c r="C135" t="str">
-        <v>Thu Oct 10 2024 15:17:40 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 18:26:22</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="B136" t="str">
-        <v>BONIFACIO</v>
+        <v>ERWYN</v>
       </c>
       <c r="C136" t="str">
-        <v>Mon Oct 07 2024 08:54:22 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 09:52:34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="B137" t="str">
-        <v>BONIFACIO</v>
+        <v>ERWYN</v>
       </c>
       <c r="C137" t="str">
-        <v>Mon Oct 07 2024 17:56:56 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 19:02:34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="B138" t="str">
-        <v>BONIFACIO</v>
+        <v>1007</v>
       </c>
       <c r="C138" t="str">
-        <v>Tue Oct 08 2024 08:51:48 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 07:56:30</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="B139" t="str">
-        <v>BONIFACIO</v>
+        <v>1007</v>
       </c>
       <c r="C139" t="str">
-        <v>Tue Oct 08 2024 20:30:17 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 13:18:14</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="B140" t="str">
-        <v>BONIFACIO</v>
+        <v>1007</v>
       </c>
       <c r="C140" t="str">
-        <v>Wed Oct 09 2024 08:56:02 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 12:16:16</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="B141" t="str">
-        <v>BONIFACIO</v>
+        <v>1007</v>
       </c>
       <c r="C141" t="str">
-        <v>Wed Oct 09 2024 14:06:32 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 14:31:02</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="B142" t="str">
-        <v>BONIFACIO</v>
+        <v>1007</v>
       </c>
       <c r="C142" t="str">
-        <v>Thu Oct 10 2024 08:50:08 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 09:18:40</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="B143" t="str">
-        <v>BONIFACIO</v>
+        <v>1007</v>
       </c>
       <c r="C143" t="str">
-        <v>Thu Oct 10 2024 13:14:32 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 12:57:21</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="B144" t="str">
-        <v>ERWYN</v>
+        <v>1007</v>
       </c>
       <c r="C144" t="str">
-        <v>Mon Oct 07 2024 10:03:45 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 07:54:54</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="B145" t="str">
-        <v>ERWYN</v>
+        <v>CESS</v>
       </c>
       <c r="C145" t="str">
-        <v>Mon Oct 07 2024 17:39:57 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 08:01:30</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="B146" t="str">
-        <v>ERWYN</v>
+        <v>CESS</v>
       </c>
       <c r="C146" t="str">
-        <v>Tue Oct 08 2024 09:45:18 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 14:17:03</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="B147" t="str">
-        <v>ERWYN</v>
+        <v>CESS</v>
       </c>
       <c r="C147" t="str">
-        <v>Tue Oct 08 2024 18:49:31 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 07:58:08</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="B148" t="str">
-        <v>ERWYN</v>
+        <v>CESS</v>
       </c>
       <c r="C148" t="str">
-        <v>Wed Oct 09 2024 12:04:35 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 17:05:07</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="B149" t="str">
-        <v>ERWYN</v>
+        <v>CESS</v>
       </c>
       <c r="C149" t="str">
-        <v>Wed Oct 09 2024 19:01:08 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 08:06:27</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="B150" t="str">
-        <v>ERWYN</v>
+        <v>CESS</v>
       </c>
       <c r="C150" t="str">
-        <v>Thu Oct 10 2024 09:59:06 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 09:16:16</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="B151" t="str">
-        <v>ERWYN</v>
+        <v>CESS</v>
       </c>
       <c r="C151" t="str">
-        <v>Thu Oct 10 2024 11:12:57 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 08:02:56</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B152" t="str">
-        <v>1007</v>
+        <v>ROXAN</v>
       </c>
       <c r="C152" t="str">
-        <v>Mon Oct 07 2024 07:55:25 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 08:02:59</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B153" t="str">
-        <v>1007</v>
+        <v>ROXAN</v>
       </c>
       <c r="C153" t="str">
-        <v>Mon Oct 07 2024 16:08:13 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 15:26:12</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B154" t="str">
-        <v>1007</v>
+        <v>ROXAN</v>
       </c>
       <c r="C154" t="str">
-        <v>Tue Oct 08 2024 08:26:26 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 09:28:26</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B155" t="str">
-        <v>1007</v>
+        <v>ROXAN</v>
       </c>
       <c r="C155" t="str">
-        <v>Tue Oct 08 2024 11:03:58 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 11:40:56</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B156" t="str">
-        <v>1007</v>
+        <v>AFRYL JOY</v>
       </c>
       <c r="C156" t="str">
-        <v>Wed Oct 09 2024 07:56:30 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 07:41:14</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B157" t="str">
-        <v>1007</v>
+        <v>AFRYL JOY</v>
       </c>
       <c r="C157" t="str">
-        <v>Wed Oct 09 2024 13:18:14 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 13:01:58</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B158" t="str">
-        <v>1007</v>
+        <v>AFRYL JOY</v>
       </c>
       <c r="C158" t="str">
-        <v>Thu Oct 10 2024 12:16:16 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 13:09:26</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B159" t="str">
-        <v>1007</v>
+        <v>AFRYL JOY</v>
       </c>
       <c r="C159" t="str">
-        <v>Thu Oct 10 2024 14:31:02 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 16:04:48</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B160" t="str">
-        <v>CESS</v>
+        <v>AFRYL JOY</v>
       </c>
       <c r="C160" t="str">
-        <v>Tue Oct 08 2024 07:56:08 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 07:36:13</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B161" t="str">
-        <v>CESS</v>
+        <v>AFRYL JOY</v>
       </c>
       <c r="C161" t="str">
-        <v>Tue Oct 08 2024 11:10:06 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 12:54:34</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B162" t="str">
-        <v>CESS</v>
+        <v>AFRYL JOY</v>
       </c>
       <c r="C162" t="str">
-        <v>Wed Oct 09 2024 08:01:30 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 08:39:27</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B163" t="str">
-        <v>CESS</v>
+        <v>HANNAH</v>
       </c>
       <c r="C163" t="str">
-        <v>Wed Oct 09 2024 14:17:03 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 07:14:06</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B164" t="str">
-        <v>CESS</v>
+        <v>HANNAH</v>
       </c>
       <c r="C164" t="str">
-        <v>Thu Oct 10 2024 07:58:08 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 12:10:48</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B165" t="str">
-        <v>CESS</v>
+        <v>HANNAH</v>
       </c>
       <c r="C165" t="str">
-        <v>Thu Oct 10 2024 15:01:32 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 07:13:37</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B166" t="str">
-        <v>ROXAN</v>
+        <v>HANNAH</v>
       </c>
       <c r="C166" t="str">
-        <v>Mon Oct 07 2024 08:08:36 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 09:23:04</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B167" t="str">
-        <v>ROXAN</v>
+        <v>HANNAH</v>
       </c>
       <c r="C167" t="str">
-        <v>Mon Oct 07 2024 12:03:34 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 07:04:49</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B168" t="str">
-        <v>ROXAN</v>
+        <v>HANNAH</v>
       </c>
       <c r="C168" t="str">
-        <v>Tue Oct 08 2024 10:21:06 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 13:53:50</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B169" t="str">
-        <v>ROXAN</v>
+        <v>JOHN</v>
       </c>
       <c r="C169" t="str">
-        <v>Wed Oct 09 2024 08:02:59 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 07:42:23</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B170" t="str">
-        <v>ROXAN</v>
+        <v>JOHN</v>
       </c>
       <c r="C170" t="str">
-        <v>Wed Oct 09 2024 15:26:12 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 17:42:25</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B171" t="str">
-        <v>ROXAN</v>
+        <v>JOHN</v>
       </c>
       <c r="C171" t="str">
-        <v>Thu Oct 10 2024 09:28:26 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 07:31:53</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B172" t="str">
-        <v>ROXAN</v>
+        <v>JOHN</v>
       </c>
       <c r="C172" t="str">
-        <v>Thu Oct 10 2024 11:40:56 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 17:00:48</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="B173" t="str">
-        <v>AFRYL JOY</v>
+        <v>JOHN</v>
       </c>
       <c r="C173" t="str">
-        <v>Mon Oct 07 2024 07:44:11 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 08:02:31</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="B174" t="str">
-        <v>AFRYL JOY</v>
+        <v>JOHN</v>
       </c>
       <c r="C174" t="str">
-        <v>Mon Oct 07 2024 15:07:00 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 17:01:32</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="B175" t="str">
-        <v>AFRYL JOY</v>
+        <v>JOHN</v>
       </c>
       <c r="C175" t="str">
-        <v>Tue Oct 08 2024 07:35:44 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 07:34:17</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="B176" t="str">
-        <v>AFRYL JOY</v>
+        <v>JOHN</v>
       </c>
       <c r="C176" t="str">
-        <v>Tue Oct 08 2024 12:54:35 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 07:52:23</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B177" t="str">
-        <v>AFRYL JOY</v>
+        <v>HAYDEE</v>
       </c>
       <c r="C177" t="str">
-        <v>Wed Oct 09 2024 07:41:14 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 11:36:08</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B178" t="str">
-        <v>AFRYL JOY</v>
+        <v>HAYDEE</v>
       </c>
       <c r="C178" t="str">
-        <v>Wed Oct 09 2024 13:01:58 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 17:34:52</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B179" t="str">
-        <v>AFRYL JOY</v>
+        <v>HAYDEE</v>
       </c>
       <c r="C179" t="str">
-        <v>Thu Oct 10 2024 13:09:26 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 10:14:17</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="B180" t="str">
-        <v>HANNAH</v>
+        <v>Johnpaul</v>
       </c>
       <c r="C180" t="str">
-        <v>Mon Oct 07 2024 07:49:56 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 10:13:39</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="B181" t="str">
-        <v>HANNAH</v>
+        <v>Johnpaul</v>
       </c>
       <c r="C181" t="str">
-        <v>Mon Oct 07 2024 17:46:55 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 14:52:43</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="B182" t="str">
-        <v>HANNAH</v>
+        <v>Johnpaul</v>
       </c>
       <c r="C182" t="str">
-        <v>Tue Oct 08 2024 13:09:34 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 13:39:34</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="B183" t="str">
-        <v>HANNAH</v>
+        <v>Johnpaul</v>
       </c>
       <c r="C183" t="str">
-        <v>Tue Oct 08 2024 18:14:58 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 15:14:08</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="B184" t="str">
-        <v>HANNAH</v>
+        <v>Johnpaul</v>
       </c>
       <c r="C184" t="str">
-        <v>Wed Oct 09 2024 07:14:06 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 16:48:59</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="B185" t="str">
-        <v>HANNAH</v>
+        <v>Johnpaul</v>
       </c>
       <c r="C185" t="str">
-        <v>Wed Oct 09 2024 12:10:48 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 16:52:31</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="B186" t="str">
-        <v>HANNAH</v>
+        <v>Johnpaul</v>
       </c>
       <c r="C186" t="str">
-        <v>Thu Oct 10 2024 07:13:37 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 06:49:05</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>1004</v>
+        <v>1</v>
       </c>
       <c r="B187" t="str">
-        <v>HANNAH</v>
+        <v>1</v>
       </c>
       <c r="C187" t="str">
-        <v>Thu Oct 10 2024 09:23:04 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 18:41:03</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>1009</v>
+        <v>1</v>
       </c>
       <c r="B188" t="str">
-        <v>JOHN</v>
+        <v>1</v>
       </c>
       <c r="C188" t="str">
-        <v>Mon Oct 07 2024 07:53:45 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 18:41:06</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>1009</v>
+        <v>808</v>
       </c>
       <c r="B189" t="str">
-        <v>JOHN</v>
+        <v>808</v>
       </c>
       <c r="C189" t="str">
-        <v>Mon Oct 07 2024 17:08:51 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 09:40:49</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>1009</v>
+        <v>1028</v>
       </c>
       <c r="B190" t="str">
-        <v>JOHN</v>
+        <v>ANGELICA</v>
       </c>
       <c r="C190" t="str">
-        <v>Tue Oct 08 2024 09:42:02 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 06:58:44</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>1009</v>
+        <v>1028</v>
       </c>
       <c r="B191" t="str">
-        <v>JOHN</v>
+        <v>ANGELICA</v>
       </c>
       <c r="C191" t="str">
-        <v>Tue Oct 08 2024 20:59:03 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 17:03:04</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>1009</v>
+        <v>1028</v>
       </c>
       <c r="B192" t="str">
-        <v>JOHN</v>
+        <v>ANGELICA</v>
       </c>
       <c r="C192" t="str">
-        <v>Wed Oct 09 2024 07:42:23 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 07:07:36</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>1009</v>
+        <v>1028</v>
       </c>
       <c r="B193" t="str">
-        <v>JOHN</v>
+        <v>ANGELICA</v>
       </c>
       <c r="C193" t="str">
-        <v>Wed Oct 09 2024 17:42:25 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 17:02:35</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>1009</v>
+        <v>1028</v>
       </c>
       <c r="B194" t="str">
-        <v>JOHN</v>
+        <v>ANGELICA</v>
       </c>
       <c r="C194" t="str">
-        <v>Thu Oct 10 2024 07:31:53 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 07:13:06</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>1009</v>
+        <v>1028</v>
       </c>
       <c r="B195" t="str">
-        <v>JOHN</v>
+        <v>ANGELICA</v>
       </c>
       <c r="C195" t="str">
-        <v>Thu Oct 10 2024 14:08:54 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 17:05:31</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>1001</v>
+        <v>1028</v>
       </c>
       <c r="B196" t="str">
-        <v>HAYDEE</v>
+        <v>ANGELICA</v>
       </c>
       <c r="C196" t="str">
-        <v>Mon Oct 07 2024 13:15:52 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-14 07:31:32</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>1001</v>
+        <v>609</v>
       </c>
       <c r="B197" t="str">
-        <v>HAYDEE</v>
+        <v>609</v>
       </c>
       <c r="C197" t="str">
-        <v>Mon Oct 07 2024 18:20:30 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 14:28:16</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>1001</v>
+        <v>609</v>
       </c>
       <c r="B198" t="str">
-        <v>HAYDEE</v>
+        <v>609</v>
       </c>
       <c r="C198" t="str">
-        <v>Tue Oct 08 2024 12:13:08 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 14:28:18</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>1001</v>
+        <v>3009</v>
       </c>
       <c r="B199" t="str">
-        <v>HAYDEE</v>
+        <v>3009</v>
       </c>
       <c r="C199" t="str">
-        <v>Tue Oct 08 2024 14:39:00 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 07:58:54</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>1001</v>
+        <v>3009</v>
       </c>
       <c r="B200" t="str">
-        <v>HAYDEE</v>
+        <v>3009</v>
       </c>
       <c r="C200" t="str">
-        <v>Thu Oct 10 2024 11:36:08 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 07:47:40</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>1026</v>
+        <v>2009</v>
       </c>
       <c r="B201" t="str">
-        <v>Johnpaul</v>
+        <v>Rachelle</v>
       </c>
       <c r="C201" t="str">
-        <v>Mon Oct 07 2024 08:14:27 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 13:55:04</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>1026</v>
+        <v>12</v>
       </c>
       <c r="B202" t="str">
-        <v>Johnpaul</v>
+        <v>12</v>
       </c>
       <c r="C202" t="str">
-        <v>Mon Oct 07 2024 16:10:22 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 11:38:04</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>1026</v>
+        <v>3</v>
       </c>
       <c r="B203" t="str">
-        <v>Johnpaul</v>
+        <v>3</v>
       </c>
       <c r="C203" t="str">
-        <v>Tue Oct 08 2024 10:56:19 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 15:27:37</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>1026</v>
+        <v>3</v>
       </c>
       <c r="B204" t="str">
-        <v>Johnpaul</v>
+        <v>3</v>
       </c>
       <c r="C204" t="str">
-        <v>Tue Oct 08 2024 16:11:56 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 19:39:30</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>1026</v>
+        <v>3</v>
       </c>
       <c r="B205" t="str">
-        <v>Johnpaul</v>
+        <v>3</v>
       </c>
       <c r="C205" t="str">
-        <v>Wed Oct 09 2024 10:13:39 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 18:03:05</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>1026</v>
+        <v>3</v>
       </c>
       <c r="B206" t="str">
-        <v>Johnpaul</v>
+        <v>3</v>
       </c>
       <c r="C206" t="str">
-        <v>Wed Oct 09 2024 14:52:43 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 21:00:44</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>1026</v>
+        <v>3</v>
       </c>
       <c r="B207" t="str">
-        <v>Johnpaul</v>
+        <v>3</v>
       </c>
       <c r="C207" t="str">
-        <v>Thu Oct 10 2024 13:39:34 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 15:13:22</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>1026</v>
+        <v>3</v>
       </c>
       <c r="B208" t="str">
-        <v>Johnpaul</v>
+        <v>3</v>
       </c>
       <c r="C208" t="str">
-        <v>Thu Oct 10 2024 15:14:08 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 19:59:53</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>808</v>
+        <v>4003</v>
       </c>
       <c r="B209" t="str">
-        <v>808</v>
+        <v>4003</v>
       </c>
       <c r="C209" t="str">
-        <v>Mon Oct 07 2024 10:03:13 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 07:24:51</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>1028</v>
+        <v>5013</v>
       </c>
       <c r="B210" t="str">
-        <v>ANGELICA</v>
+        <v>IRA</v>
       </c>
       <c r="C210" t="str">
-        <v>Mon Oct 07 2024 07:30:34 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 07:28:46</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>1028</v>
+        <v>5013</v>
       </c>
       <c r="B211" t="str">
-        <v>ANGELICA</v>
+        <v>IRA</v>
       </c>
       <c r="C211" t="str">
-        <v>Mon Oct 07 2024 17:11:22 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-09 17:03:31</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>1028</v>
+        <v>5013</v>
       </c>
       <c r="B212" t="str">
-        <v>ANGELICA</v>
+        <v>IRA</v>
       </c>
       <c r="C212" t="str">
-        <v>Tue Oct 08 2024 07:16:05 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 07:41:35</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>1028</v>
+        <v>5013</v>
       </c>
       <c r="B213" t="str">
-        <v>ANGELICA</v>
+        <v>IRA</v>
       </c>
       <c r="C213" t="str">
-        <v>Tue Oct 08 2024 17:03:22 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-10 17:02:12</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>1028</v>
+        <v>5013</v>
       </c>
       <c r="B214" t="str">
-        <v>ANGELICA</v>
+        <v>IRA</v>
       </c>
       <c r="C214" t="str">
-        <v>Wed Oct 09 2024 06:58:44 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 08:10:32</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>1028</v>
+        <v>5013</v>
       </c>
       <c r="B215" t="str">
-        <v>ANGELICA</v>
+        <v>IRA</v>
       </c>
       <c r="C215" t="str">
-        <v>Wed Oct 09 2024 17:03:04 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="str">
-        <v>1028</v>
-      </c>
-      <c r="B216" t="str">
-        <v>ANGELICA</v>
-      </c>
-      <c r="C216" t="str">
-        <v>Thu Oct 10 2024 07:07:36 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="str">
-        <v>1028</v>
-      </c>
-      <c r="B217" t="str">
-        <v>ANGELICA</v>
-      </c>
-      <c r="C217" t="str">
-        <v>Thu Oct 10 2024 11:48:30 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="str">
-        <v>603</v>
-      </c>
-      <c r="B218" t="str">
-        <v>603</v>
-      </c>
-      <c r="C218" t="str">
-        <v>Mon Oct 07 2024 13:33:29 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="str">
-        <v>603</v>
-      </c>
-      <c r="B219" t="str">
-        <v>603</v>
-      </c>
-      <c r="C219" t="str">
-        <v>Mon Oct 07 2024 13:33:41 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="str">
-        <v>604</v>
-      </c>
-      <c r="B220" t="str">
-        <v>604</v>
-      </c>
-      <c r="C220" t="str">
-        <v>Mon Oct 07 2024 13:33:31 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="str">
-        <v>604</v>
-      </c>
-      <c r="B221" t="str">
-        <v>604</v>
-      </c>
-      <c r="C221" t="str">
-        <v>Mon Oct 07 2024 13:33:38 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="str">
-        <v>605</v>
-      </c>
-      <c r="B222" t="str">
-        <v>605</v>
-      </c>
-      <c r="C222" t="str">
-        <v>Mon Oct 07 2024 13:33:33 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="str">
-        <v>605</v>
-      </c>
-      <c r="B223" t="str">
-        <v>605</v>
-      </c>
-      <c r="C223" t="str">
-        <v>Mon Oct 07 2024 13:33:35 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="str">
-        <v>609</v>
-      </c>
-      <c r="B224" t="str">
-        <v>609</v>
-      </c>
-      <c r="C224" t="str">
-        <v>Wed Oct 09 2024 14:28:16 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="str">
-        <v>609</v>
-      </c>
-      <c r="B225" t="str">
-        <v>609</v>
-      </c>
-      <c r="C225" t="str">
-        <v>Wed Oct 09 2024 14:28:18 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="str">
-        <v>3009</v>
-      </c>
-      <c r="B226" t="str">
-        <v>3009</v>
-      </c>
-      <c r="C226" t="str">
-        <v>Wed Oct 09 2024 07:58:54 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="str">
-        <v>10004</v>
-      </c>
-      <c r="B227" t="str">
-        <v>10004</v>
-      </c>
-      <c r="C227" t="str">
-        <v>Mon Oct 07 2024 07:13:55 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="str">
-        <v>10004</v>
-      </c>
-      <c r="B228" t="str">
-        <v>10004</v>
-      </c>
-      <c r="C228" t="str">
-        <v>Mon Oct 07 2024 07:13:57 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="str">
-        <v>10004</v>
-      </c>
-      <c r="B229" t="str">
-        <v>10004</v>
-      </c>
-      <c r="C229" t="str">
-        <v>Tue Oct 08 2024 08:58:49 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="str">
-        <v>2009</v>
-      </c>
-      <c r="B230" t="str">
-        <v>Rachelle</v>
-      </c>
-      <c r="C230" t="str">
-        <v>Tue Oct 08 2024 17:15:29 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="str">
-        <v>12</v>
-      </c>
-      <c r="B231" t="str">
-        <v>12</v>
-      </c>
-      <c r="C231" t="str">
-        <v>Mon Oct 07 2024 09:41:45 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="str">
-        <v>12</v>
-      </c>
-      <c r="B232" t="str">
-        <v>12</v>
-      </c>
-      <c r="C232" t="str">
-        <v>Wed Oct 09 2024 11:38:04 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="str">
-        <v>3</v>
-      </c>
-      <c r="B233" t="str">
-        <v>3</v>
-      </c>
-      <c r="C233" t="str">
-        <v>Mon Oct 07 2024 09:31:40 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="str">
-        <v>3</v>
-      </c>
-      <c r="B234" t="str">
-        <v>3</v>
-      </c>
-      <c r="C234" t="str">
-        <v>Mon Oct 07 2024 18:17:43 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="str">
-        <v>3</v>
-      </c>
-      <c r="B235" t="str">
-        <v>3</v>
-      </c>
-      <c r="C235" t="str">
-        <v>Tue Oct 08 2024 08:03:24 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="str">
-        <v>3</v>
-      </c>
-      <c r="B236" t="str">
-        <v>3</v>
-      </c>
-      <c r="C236" t="str">
-        <v>Tue Oct 08 2024 21:03:04 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="str">
-        <v>3</v>
-      </c>
-      <c r="B237" t="str">
-        <v>3</v>
-      </c>
-      <c r="C237" t="str">
-        <v>Wed Oct 09 2024 15:27:37 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="str">
-        <v>3</v>
-      </c>
-      <c r="B238" t="str">
-        <v>3</v>
-      </c>
-      <c r="C238" t="str">
-        <v>Wed Oct 09 2024 19:39:30 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="str">
-        <v>601</v>
-      </c>
-      <c r="B239" t="str">
-        <v>601</v>
-      </c>
-      <c r="C239" t="str">
-        <v>Mon Oct 07 2024 13:31:13 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="str">
-        <v>601</v>
-      </c>
-      <c r="B240" t="str">
-        <v>601</v>
-      </c>
-      <c r="C240" t="str">
-        <v>Mon Oct 07 2024 13:31:15 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="str">
-        <v>602</v>
-      </c>
-      <c r="B241" t="str">
-        <v>602</v>
-      </c>
-      <c r="C241" t="str">
-        <v>Mon Oct 07 2024 13:33:25 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="str">
-        <v>602</v>
-      </c>
-      <c r="B242" t="str">
-        <v>602</v>
-      </c>
-      <c r="C242" t="str">
-        <v>Mon Oct 07 2024 13:33:43 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="str">
-        <v>5013</v>
-      </c>
-      <c r="B243" t="str">
-        <v>IRA</v>
-      </c>
-      <c r="C243" t="str">
-        <v>Tue Oct 08 2024 08:46:36 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="str">
-        <v>5013</v>
-      </c>
-      <c r="B244" t="str">
-        <v>IRA</v>
-      </c>
-      <c r="C244" t="str">
-        <v>Tue Oct 08 2024 17:04:59 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="str">
-        <v>5013</v>
-      </c>
-      <c r="B245" t="str">
-        <v>IRA</v>
-      </c>
-      <c r="C245" t="str">
-        <v>Wed Oct 09 2024 07:28:46 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="str">
-        <v>5013</v>
-      </c>
-      <c r="B246" t="str">
-        <v>IRA</v>
-      </c>
-      <c r="C246" t="str">
-        <v>Wed Oct 09 2024 17:03:31 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="str">
-        <v>5013</v>
-      </c>
-      <c r="B247" t="str">
-        <v>IRA</v>
-      </c>
-      <c r="C247" t="str">
-        <v>Thu Oct 10 2024 07:41:35 GMT+0800 (Philippine Standard Time)</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="str">
-        <v>5013</v>
-      </c>
-      <c r="B248" t="str">
-        <v>IRA</v>
-      </c>
-      <c r="C248" t="str">
-        <v>Thu Oct 10 2024 13:17:23 GMT+0800 (Philippine Standard Time)</v>
+        <v>2024-10-11 17:06:59</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C248"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C215"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/logs.xlsx
+++ b/logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C660"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +421,7 @@
         <v>RODEL</v>
       </c>
       <c r="C2" t="str">
-        <v>2024-10-09 07:01:09</v>
+        <v>2024-10-08 07:20:12</v>
       </c>
     </row>
     <row r="3">
@@ -432,7 +432,7 @@
         <v>RODEL</v>
       </c>
       <c r="C3" t="str">
-        <v>2024-10-09 18:04:31</v>
+        <v>2024-10-08 17:07:02</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>RODEL</v>
       </c>
       <c r="C4" t="str">
-        <v>2024-10-10 07:32:06</v>
+        <v>2024-10-09 07:01:09</v>
       </c>
     </row>
     <row r="5">
@@ -454,7 +454,7 @@
         <v>RODEL</v>
       </c>
       <c r="C5" t="str">
-        <v>2024-10-10 17:03:26</v>
+        <v>2024-10-09 18:04:31</v>
       </c>
     </row>
     <row r="6">
@@ -465,7 +465,7 @@
         <v>RODEL</v>
       </c>
       <c r="C6" t="str">
-        <v>2024-10-11 07:37:40</v>
+        <v>2024-10-10 07:32:06</v>
       </c>
     </row>
     <row r="7">
@@ -476,7 +476,7 @@
         <v>RODEL</v>
       </c>
       <c r="C7" t="str">
-        <v>2024-10-11 17:17:56</v>
+        <v>2024-10-10 17:03:26</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>RODEL</v>
       </c>
       <c r="C8" t="str">
-        <v>2024-10-14 08:32:11</v>
+        <v>2024-10-11 07:37:40</v>
       </c>
     </row>
     <row r="9">
@@ -498,2278 +498,7173 @@
         <v>RODEL</v>
       </c>
       <c r="C9" t="str">
-        <v>2024-10-14 08:40:03</v>
+        <v>2024-10-11 17:17:56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>1011</v>
+        <v>5004</v>
       </c>
       <c r="B10" t="str">
-        <v>DEL</v>
+        <v>RODEL</v>
       </c>
       <c r="C10" t="str">
-        <v>2024-10-09 08:47:19</v>
+        <v>2024-10-14 08:32:11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>1011</v>
+        <v>5004</v>
       </c>
       <c r="B11" t="str">
-        <v>DEL</v>
+        <v>RODEL</v>
       </c>
       <c r="C11" t="str">
-        <v>2024-10-09 18:03:59</v>
+        <v>2024-10-14 16:18:30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>1011</v>
+        <v>5004</v>
       </c>
       <c r="B12" t="str">
-        <v>DEL</v>
+        <v>RODEL</v>
       </c>
       <c r="C12" t="str">
-        <v>2024-10-10 08:50:15</v>
+        <v>2024-10-15 08:11:50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>1011</v>
+        <v>5004</v>
       </c>
       <c r="B13" t="str">
-        <v>DEL</v>
+        <v>RODEL</v>
       </c>
       <c r="C13" t="str">
-        <v>2024-10-10 17:19:36</v>
+        <v>2024-10-15 17:05:32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>1011</v>
+        <v>5004</v>
       </c>
       <c r="B14" t="str">
-        <v>DEL</v>
+        <v>RODEL</v>
       </c>
       <c r="C14" t="str">
-        <v>2024-10-11 09:08:12</v>
+        <v>2024-10-16 08:04:36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>1011</v>
+        <v>5004</v>
       </c>
       <c r="B15" t="str">
-        <v>DEL</v>
+        <v>RODEL</v>
       </c>
       <c r="C15" t="str">
-        <v>2024-10-11 18:10:19</v>
+        <v>2024-10-16 17:48:44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>902</v>
+        <v>5004</v>
       </c>
       <c r="B16" t="str">
-        <v>ANDY</v>
+        <v>RODEL</v>
       </c>
       <c r="C16" t="str">
-        <v>2024-10-11 14:03:52</v>
+        <v>2024-10-17 07:41:05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>5001</v>
+        <v>5004</v>
       </c>
       <c r="B17" t="str">
-        <v>CRISTINE</v>
+        <v>RODEL</v>
       </c>
       <c r="C17" t="str">
-        <v>2024-10-09 09:12:02</v>
+        <v>2024-10-17 20:04:19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>5001</v>
+        <v>5004</v>
       </c>
       <c r="B18" t="str">
-        <v>CRISTINE</v>
+        <v>RODEL</v>
       </c>
       <c r="C18" t="str">
-        <v>2024-10-09 17:41:13</v>
+        <v>2024-10-18 07:30:47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>5001</v>
+        <v>5004</v>
       </c>
       <c r="B19" t="str">
-        <v>CRISTINE</v>
+        <v>RODEL</v>
       </c>
       <c r="C19" t="str">
-        <v>2024-10-10 08:38:38</v>
+        <v>2024-10-18 19:52:51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>5001</v>
+        <v>5004</v>
       </c>
       <c r="B20" t="str">
-        <v>CRISTINE</v>
+        <v>RODEL</v>
       </c>
       <c r="C20" t="str">
-        <v>2024-10-10 20:40:46</v>
+        <v>2024-10-21 08:01:03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>5001</v>
+        <v>5004</v>
       </c>
       <c r="B21" t="str">
-        <v>CRISTINE</v>
+        <v>RODEL</v>
       </c>
       <c r="C21" t="str">
-        <v>2024-10-11 08:48:32</v>
+        <v>2024-10-21 17:20:23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>5001</v>
+        <v>5004</v>
       </c>
       <c r="B22" t="str">
-        <v>CRISTINE</v>
+        <v>RODEL</v>
       </c>
       <c r="C22" t="str">
-        <v>2024-10-11 19:43:55</v>
+        <v>2024-10-22 07:54:56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>4015</v>
+        <v>5004</v>
       </c>
       <c r="B23" t="str">
-        <v>AKEYLA</v>
+        <v>RODEL</v>
       </c>
       <c r="C23" t="str">
-        <v>2024-10-09 09:54:00</v>
+        <v>2024-10-22 11:24:03</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>4015</v>
+        <v>1011</v>
       </c>
       <c r="B24" t="str">
-        <v>AKEYLA</v>
+        <v>DEL</v>
       </c>
       <c r="C24" t="str">
-        <v>2024-10-09 17:59:59</v>
+        <v>2024-10-08 10:37:32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>4015</v>
+        <v>1011</v>
       </c>
       <c r="B25" t="str">
-        <v>AKEYLA</v>
+        <v>DEL</v>
       </c>
       <c r="C25" t="str">
-        <v>2024-10-10 09:48:13</v>
+        <v>2024-10-08 18:00:59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>4015</v>
+        <v>1011</v>
       </c>
       <c r="B26" t="str">
-        <v>AKEYLA</v>
+        <v>DEL</v>
       </c>
       <c r="C26" t="str">
-        <v>2024-10-10 18:59:32</v>
+        <v>2024-10-09 08:47:19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>4015</v>
+        <v>1011</v>
       </c>
       <c r="B27" t="str">
-        <v>AKEYLA</v>
+        <v>DEL</v>
       </c>
       <c r="C27" t="str">
-        <v>2024-10-11 09:45:46</v>
+        <v>2024-10-09 18:03:59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>4015</v>
+        <v>1011</v>
       </c>
       <c r="B28" t="str">
-        <v>AKEYLA</v>
+        <v>DEL</v>
       </c>
       <c r="C28" t="str">
-        <v>2024-10-11 18:00:49</v>
+        <v>2024-10-10 08:50:15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>908</v>
+        <v>1011</v>
       </c>
       <c r="B29" t="str">
-        <v>LEO</v>
+        <v>DEL</v>
       </c>
       <c r="C29" t="str">
-        <v>2024-10-09 07:54:23</v>
+        <v>2024-10-10 17:19:36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>908</v>
+        <v>1011</v>
       </c>
       <c r="B30" t="str">
-        <v>LEO</v>
+        <v>DEL</v>
       </c>
       <c r="C30" t="str">
-        <v>2024-10-09 18:03:34</v>
+        <v>2024-10-11 09:08:12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>908</v>
+        <v>1011</v>
       </c>
       <c r="B31" t="str">
-        <v>LEO</v>
+        <v>DEL</v>
       </c>
       <c r="C31" t="str">
-        <v>2024-10-10 13:58:23</v>
+        <v>2024-10-11 18:10:19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>908</v>
+        <v>1011</v>
       </c>
       <c r="B32" t="str">
-        <v>LEO</v>
+        <v>DEL</v>
       </c>
       <c r="C32" t="str">
-        <v>2024-10-11 16:17:15</v>
+        <v>2024-10-14 08:57:45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>908</v>
+        <v>1011</v>
       </c>
       <c r="B33" t="str">
-        <v>LEO</v>
+        <v>DEL</v>
       </c>
       <c r="C33" t="str">
-        <v>2024-10-11 18:07:38</v>
+        <v>2024-10-14 13:43:17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>908</v>
+        <v>1011</v>
       </c>
       <c r="B34" t="str">
-        <v>LEO</v>
+        <v>DEL</v>
       </c>
       <c r="C34" t="str">
-        <v>2024-10-13 07:54:37</v>
+        <v>2024-10-15 08:38:17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>908</v>
+        <v>1011</v>
       </c>
       <c r="B35" t="str">
-        <v>LEO</v>
+        <v>DEL</v>
       </c>
       <c r="C35" t="str">
-        <v>2024-10-13 18:03:44</v>
+        <v>2024-10-15 18:00:18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>908</v>
+        <v>1011</v>
       </c>
       <c r="B36" t="str">
-        <v>LEO</v>
+        <v>DEL</v>
       </c>
       <c r="C36" t="str">
-        <v>2024-10-14 07:56:00</v>
+        <v>2024-10-16 09:18:54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>5003</v>
+        <v>1011</v>
       </c>
       <c r="B37" t="str">
-        <v>FRANCIS</v>
+        <v>DEL</v>
       </c>
       <c r="C37" t="str">
-        <v>2024-10-09 09:53:06</v>
+        <v>2024-10-16 18:01:03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>5003</v>
+        <v>1011</v>
       </c>
       <c r="B38" t="str">
-        <v>FRANCIS</v>
+        <v>DEL</v>
       </c>
       <c r="C38" t="str">
-        <v>2024-10-09 13:52:04</v>
+        <v>2024-10-17 08:43:05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>5003</v>
+        <v>1011</v>
       </c>
       <c r="B39" t="str">
-        <v>FRANCIS</v>
+        <v>DEL</v>
       </c>
       <c r="C39" t="str">
-        <v>2024-10-11 13:50:51</v>
+        <v>2024-10-17 20:04:13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>5005</v>
+        <v>1011</v>
       </c>
       <c r="B40" t="str">
-        <v>ERIKA</v>
+        <v>DEL</v>
       </c>
       <c r="C40" t="str">
-        <v>2024-10-09 10:03:27</v>
+        <v>2024-10-18 08:29:24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>5005</v>
+        <v>1011</v>
       </c>
       <c r="B41" t="str">
-        <v>ERIKA</v>
+        <v>DEL</v>
       </c>
       <c r="C41" t="str">
-        <v>2024-10-09 18:52:29</v>
+        <v>2024-10-18 17:25:22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>5005</v>
+        <v>1011</v>
       </c>
       <c r="B42" t="str">
-        <v>ERIKA</v>
+        <v>DEL</v>
       </c>
       <c r="C42" t="str">
-        <v>2024-10-10 09:26:32</v>
+        <v>2024-10-21 08:54:07</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>5005</v>
+        <v>1011</v>
       </c>
       <c r="B43" t="str">
-        <v>ERIKA</v>
+        <v>DEL</v>
       </c>
       <c r="C43" t="str">
-        <v>2024-10-10 14:37:54</v>
+        <v>2024-10-21 18:02:59</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>5005</v>
+        <v>1011</v>
       </c>
       <c r="B44" t="str">
-        <v>ERIKA</v>
+        <v>DEL</v>
       </c>
       <c r="C44" t="str">
-        <v>2024-10-11 13:16:49</v>
+        <v>2024-10-22 09:05:12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>5005</v>
+        <v>1011</v>
       </c>
       <c r="B45" t="str">
-        <v>ERIKA</v>
+        <v>DEL</v>
       </c>
       <c r="C45" t="str">
-        <v>2024-10-11 19:00:02</v>
+        <v>2024-10-22 09:08:03</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>5006</v>
+        <v>902</v>
       </c>
       <c r="B46" t="str">
-        <v>DENNY</v>
+        <v>ANDY</v>
       </c>
       <c r="C46" t="str">
-        <v>2024-10-09 07:28:41</v>
+        <v>2024-10-11 14:03:52</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>5006</v>
+        <v>902</v>
       </c>
       <c r="B47" t="str">
-        <v>DENNY</v>
+        <v>ANDY</v>
       </c>
       <c r="C47" t="str">
-        <v>2024-10-09 12:50:04</v>
+        <v>2024-10-15 17:38:33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>5006</v>
+        <v>902</v>
       </c>
       <c r="B48" t="str">
-        <v>DENNY</v>
+        <v>ANDY</v>
       </c>
       <c r="C48" t="str">
-        <v>2024-10-10 10:55:35</v>
+        <v>2024-10-15 18:01:48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>5006</v>
+        <v>1019</v>
       </c>
       <c r="B49" t="str">
-        <v>DENNY</v>
+        <v>DENNIS</v>
       </c>
       <c r="C49" t="str">
-        <v>2024-10-10 16:11:02</v>
+        <v>2024-10-17 16:01:05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>5006</v>
+        <v>5001</v>
       </c>
       <c r="B50" t="str">
-        <v>DENNY</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C50" t="str">
-        <v>2024-10-14 07:36:27</v>
+        <v>2024-10-08 08:50:27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>5006</v>
+        <v>5001</v>
       </c>
       <c r="B51" t="str">
-        <v>DENNY</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C51" t="str">
-        <v>2024-10-14 07:36:30</v>
+        <v>2024-10-08 18:08:03</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>5007</v>
+        <v>5001</v>
       </c>
       <c r="B52" t="str">
-        <v>PAUL</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C52" t="str">
-        <v>2024-10-11 16:45:16</v>
+        <v>2024-10-09 09:12:02</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>5008</v>
+        <v>5001</v>
       </c>
       <c r="B53" t="str">
-        <v>MILES</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C53" t="str">
-        <v>2024-10-09 07:34:28</v>
+        <v>2024-10-09 17:41:13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>5008</v>
+        <v>5001</v>
       </c>
       <c r="B54" t="str">
-        <v>MILES</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C54" t="str">
-        <v>2024-10-09 17:01:49</v>
+        <v>2024-10-10 08:38:38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>5008</v>
+        <v>5001</v>
       </c>
       <c r="B55" t="str">
-        <v>MILES</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C55" t="str">
-        <v>2024-10-10 07:58:14</v>
+        <v>2024-10-10 20:40:46</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>5008</v>
+        <v>5001</v>
       </c>
       <c r="B56" t="str">
-        <v>MILES</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C56" t="str">
-        <v>2024-10-10 17:02:19</v>
+        <v>2024-10-11 08:48:32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>5008</v>
+        <v>5001</v>
       </c>
       <c r="B57" t="str">
-        <v>MILES</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C57" t="str">
-        <v>2024-10-14 07:21:50</v>
+        <v>2024-10-11 19:43:55</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>5008</v>
+        <v>5001</v>
       </c>
       <c r="B58" t="str">
-        <v>MILES</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C58" t="str">
-        <v>2024-10-14 08:02:49</v>
+        <v>2024-10-14 09:06:00</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>4011</v>
+        <v>5001</v>
       </c>
       <c r="B59" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C59" t="str">
-        <v>2024-10-09 07:36:10</v>
+        <v>2024-10-14 18:12:31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>4011</v>
+        <v>5001</v>
       </c>
       <c r="B60" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C60" t="str">
-        <v>2024-10-09 13:17:20</v>
+        <v>2024-10-15 08:49:49</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>4011</v>
+        <v>5001</v>
       </c>
       <c r="B61" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C61" t="str">
-        <v>2024-10-10 11:21:14</v>
+        <v>2024-10-15 18:02:17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>4011</v>
+        <v>5001</v>
       </c>
       <c r="B62" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C62" t="str">
-        <v>2024-10-10 14:59:19</v>
+        <v>2024-10-16 09:06:32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>4011</v>
+        <v>5001</v>
       </c>
       <c r="B63" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C63" t="str">
-        <v>2024-10-11 10:46:23</v>
+        <v>2024-10-16 17:36:03</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>4011</v>
+        <v>5001</v>
       </c>
       <c r="B64" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C64" t="str">
-        <v>2024-10-11 16:57:07</v>
+        <v>2024-10-17 08:59:22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>4011</v>
+        <v>5001</v>
       </c>
       <c r="B65" t="str">
-        <v>ANDY RUSSEL</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C65" t="str">
-        <v>2024-10-14 07:58:11</v>
+        <v>2024-10-17 19:34:10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>4008</v>
+        <v>5001</v>
       </c>
       <c r="B66" t="str">
-        <v>MAECHELLE</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C66" t="str">
-        <v>2024-10-09 07:46:17</v>
+        <v>2024-10-18 08:35:40</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>4008</v>
+        <v>5001</v>
       </c>
       <c r="B67" t="str">
-        <v>MAECHELLE</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C67" t="str">
-        <v>2024-10-09 10:29:37</v>
+        <v>2024-10-18 18:38:54</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>4008</v>
+        <v>5001</v>
       </c>
       <c r="B68" t="str">
-        <v>MAECHELLE</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C68" t="str">
-        <v>2024-10-10 16:17:31</v>
+        <v>2024-10-21 08:50:37</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>4008</v>
+        <v>5001</v>
       </c>
       <c r="B69" t="str">
-        <v>MAECHELLE</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C69" t="str">
-        <v>2024-10-10 16:17:34</v>
+        <v>2024-10-21 17:38:52</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>4008</v>
+        <v>5001</v>
       </c>
       <c r="B70" t="str">
-        <v>MAECHELLE</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C70" t="str">
-        <v>2024-10-11 13:15:46</v>
+        <v>2024-10-22 09:22:07</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>4008</v>
+        <v>5001</v>
       </c>
       <c r="B71" t="str">
-        <v>MAECHELLE</v>
+        <v>CRISTINE</v>
       </c>
       <c r="C71" t="str">
-        <v>2024-10-11 13:34:51</v>
+        <v>2024-10-22 12:11:54</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>4008</v>
+        <v>4015</v>
       </c>
       <c r="B72" t="str">
-        <v>MAECHELLE</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C72" t="str">
-        <v>2024-10-14 07:48:47</v>
+        <v>2024-10-08 09:33:30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>4009</v>
+        <v>4015</v>
       </c>
       <c r="B73" t="str">
-        <v>HUBERT LOPEZ</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C73" t="str">
-        <v>2024-10-10 13:05:33</v>
+        <v>2024-10-08 18:01:03</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>4009</v>
+        <v>4015</v>
       </c>
       <c r="B74" t="str">
-        <v>HUBERT LOPEZ</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C74" t="str">
-        <v>2024-10-10 19:07:44</v>
+        <v>2024-10-09 09:54:00</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>4009</v>
+        <v>4015</v>
       </c>
       <c r="B75" t="str">
-        <v>HUBERT LOPEZ</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C75" t="str">
-        <v>2024-10-11 18:51:01</v>
+        <v>2024-10-09 17:59:59</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>4009</v>
+        <v>4015</v>
       </c>
       <c r="B76" t="str">
-        <v>HUBERT LOPEZ</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C76" t="str">
-        <v>2024-10-11 18:55:04</v>
+        <v>2024-10-10 09:48:13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>5010</v>
+        <v>4015</v>
       </c>
       <c r="B77" t="str">
-        <v>CORTEJO</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C77" t="str">
-        <v>2024-10-09 06:57:26</v>
+        <v>2024-10-10 18:59:32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>5010</v>
+        <v>4015</v>
       </c>
       <c r="B78" t="str">
-        <v>CORTEJO</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C78" t="str">
-        <v>2024-10-09 17:06:56</v>
+        <v>2024-10-11 09:45:46</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>5010</v>
+        <v>4015</v>
       </c>
       <c r="B79" t="str">
-        <v>CORTEJO</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C79" t="str">
-        <v>2024-10-10 06:49:09</v>
+        <v>2024-10-11 18:00:49</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>5010</v>
+        <v>4015</v>
       </c>
       <c r="B80" t="str">
-        <v>CORTEJO</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C80" t="str">
-        <v>2024-10-10 17:00:05</v>
+        <v>2024-10-14 09:13:27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>5010</v>
+        <v>4015</v>
       </c>
       <c r="B81" t="str">
-        <v>CORTEJO</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C81" t="str">
-        <v>2024-10-11 06:43:03</v>
+        <v>2024-10-14 18:06:14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>5010</v>
+        <v>4015</v>
       </c>
       <c r="B82" t="str">
-        <v>CORTEJO</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C82" t="str">
-        <v>2024-10-11 17:00:48</v>
+        <v>2024-10-15 09:09:10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>5010</v>
+        <v>4015</v>
       </c>
       <c r="B83" t="str">
-        <v>CORTEJO</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C83" t="str">
-        <v>2024-10-14 06:50:42</v>
+        <v>2024-10-15 18:00:27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>5011</v>
+        <v>4015</v>
       </c>
       <c r="B84" t="str">
-        <v>VINCENT TAN</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C84" t="str">
-        <v>2024-10-09 12:18:31</v>
+        <v>2024-10-16 09:16:55</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>5011</v>
+        <v>4015</v>
       </c>
       <c r="B85" t="str">
-        <v>VINCENT TAN</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C85" t="str">
-        <v>2024-10-09 17:06:59</v>
+        <v>2024-10-16 17:42:27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>5011</v>
+        <v>4015</v>
       </c>
       <c r="B86" t="str">
-        <v>VINCENT TAN</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C86" t="str">
-        <v>2024-10-10 06:43:39</v>
+        <v>2024-10-17 09:07:59</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>5011</v>
+        <v>4015</v>
       </c>
       <c r="B87" t="str">
-        <v>VINCENT TAN</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C87" t="str">
-        <v>2024-10-10 17:00:20</v>
+        <v>2024-10-17 16:01:22</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>5011</v>
+        <v>4015</v>
       </c>
       <c r="B88" t="str">
-        <v>VINCENT TAN</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C88" t="str">
-        <v>2024-10-11 07:16:24</v>
+        <v>2024-10-21 10:12:51</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>5011</v>
+        <v>4015</v>
       </c>
       <c r="B89" t="str">
-        <v>VINCENT TAN</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C89" t="str">
-        <v>2024-10-11 17:00:54</v>
+        <v>2024-10-21 18:03:25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>5011</v>
+        <v>4015</v>
       </c>
       <c r="B90" t="str">
-        <v>VINCENT TAN</v>
+        <v>AKEYLA</v>
       </c>
       <c r="C90" t="str">
-        <v>2024-10-14 07:12:32</v>
+        <v>2024-10-22 09:58:27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>5011</v>
+        <v>908</v>
       </c>
       <c r="B91" t="str">
-        <v>VINCENT TAN</v>
+        <v>LEO</v>
       </c>
       <c r="C91" t="str">
-        <v>2024-10-14 07:56:46</v>
+        <v>2024-10-09 07:54:23</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>1025</v>
+        <v>908</v>
       </c>
       <c r="B92" t="str">
-        <v>Lyndon</v>
+        <v>LEO</v>
       </c>
       <c r="C92" t="str">
-        <v>2024-10-09 08:00:10</v>
+        <v>2024-10-09 18:03:34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>1025</v>
+        <v>908</v>
       </c>
       <c r="B93" t="str">
-        <v>Lyndon</v>
+        <v>LEO</v>
       </c>
       <c r="C93" t="str">
-        <v>2024-10-09 14:39:04</v>
+        <v>2024-10-10 13:58:23</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>1025</v>
+        <v>908</v>
       </c>
       <c r="B94" t="str">
-        <v>Lyndon</v>
+        <v>LEO</v>
       </c>
       <c r="C94" t="str">
-        <v>2024-10-10 07:28:36</v>
+        <v>2024-10-11 16:17:15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>1025</v>
+        <v>908</v>
       </c>
       <c r="B95" t="str">
-        <v>Lyndon</v>
+        <v>LEO</v>
       </c>
       <c r="C95" t="str">
-        <v>2024-10-10 15:56:51</v>
+        <v>2024-10-11 18:07:38</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>1025</v>
+        <v>908</v>
       </c>
       <c r="B96" t="str">
-        <v>Lyndon</v>
+        <v>LEO</v>
       </c>
       <c r="C96" t="str">
-        <v>2024-10-11 08:08:02</v>
+        <v>2024-10-13 07:54:37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>1025</v>
+        <v>908</v>
       </c>
       <c r="B97" t="str">
-        <v>Lyndon</v>
+        <v>LEO</v>
       </c>
       <c r="C97" t="str">
-        <v>2024-10-11 15:19:30</v>
+        <v>2024-10-13 18:03:44</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>1025</v>
+        <v>908</v>
       </c>
       <c r="B98" t="str">
-        <v>Lyndon</v>
+        <v>LEO</v>
       </c>
       <c r="C98" t="str">
-        <v>2024-10-14 07:47:25</v>
+        <v>2024-10-14 07:56:00</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>1027</v>
+        <v>908</v>
       </c>
       <c r="B99" t="str">
-        <v>Lordemil</v>
+        <v>LEO</v>
       </c>
       <c r="C99" t="str">
-        <v>2024-10-09 12:20:46</v>
+        <v>2024-10-14 18:03:46</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>1027</v>
+        <v>908</v>
       </c>
       <c r="B100" t="str">
-        <v>Lordemil</v>
+        <v>LEO</v>
       </c>
       <c r="C100" t="str">
-        <v>2024-10-09 19:07:41</v>
+        <v>2024-10-15 07:55:43</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>1027</v>
+        <v>908</v>
       </c>
       <c r="B101" t="str">
-        <v>Lordemil</v>
+        <v>LEO</v>
       </c>
       <c r="C101" t="str">
-        <v>2024-10-10 12:45:38</v>
+        <v>2024-10-15 18:04:43</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>1027</v>
+        <v>908</v>
       </c>
       <c r="B102" t="str">
-        <v>Lordemil</v>
+        <v>LEO</v>
       </c>
       <c r="C102" t="str">
-        <v>2024-10-10 14:37:22</v>
+        <v>2024-10-17 07:55:23</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>1027</v>
+        <v>908</v>
       </c>
       <c r="B103" t="str">
-        <v>Lordemil</v>
+        <v>LEO</v>
       </c>
       <c r="C103" t="str">
-        <v>2024-10-11 11:52:05</v>
+        <v>2024-10-17 18:03:11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>1027</v>
+        <v>908</v>
       </c>
       <c r="B104" t="str">
-        <v>Lordemil</v>
+        <v>LEO</v>
       </c>
       <c r="C104" t="str">
-        <v>2024-10-11 21:00:58</v>
+        <v>2024-10-18 15:11:38</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>1024</v>
+        <v>908</v>
       </c>
       <c r="B105" t="str">
-        <v>Jane</v>
+        <v>LEO</v>
       </c>
       <c r="C105" t="str">
-        <v>2024-10-09 07:42:16</v>
+        <v>2024-10-18 18:03:26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>1024</v>
+        <v>908</v>
       </c>
       <c r="B106" t="str">
-        <v>Jane</v>
+        <v>LEO</v>
       </c>
       <c r="C106" t="str">
-        <v>2024-10-09 15:28:39</v>
+        <v>2024-10-22 07:54:23</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>1024</v>
+        <v>5003</v>
       </c>
       <c r="B107" t="str">
-        <v>Jane</v>
+        <v>FRANCIS</v>
       </c>
       <c r="C107" t="str">
-        <v>2024-10-11 07:59:19</v>
+        <v>2024-10-08 10:12:30</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>1024</v>
+        <v>5003</v>
       </c>
       <c r="B108" t="str">
-        <v>Jane</v>
+        <v>FRANCIS</v>
       </c>
       <c r="C108" t="str">
-        <v>2024-10-11 14:31:09</v>
+        <v>2024-10-08 18:51:40</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>1024</v>
+        <v>5003</v>
       </c>
       <c r="B109" t="str">
-        <v>Jane</v>
+        <v>FRANCIS</v>
       </c>
       <c r="C109" t="str">
-        <v>2024-10-14 07:41:16</v>
+        <v>2024-10-09 09:53:06</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>1024</v>
+        <v>5003</v>
       </c>
       <c r="B110" t="str">
-        <v>Jane</v>
+        <v>FRANCIS</v>
       </c>
       <c r="C110" t="str">
-        <v>2024-10-14 08:37:01</v>
+        <v>2024-10-09 13:52:04</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>5012</v>
+        <v>5003</v>
       </c>
       <c r="B111" t="str">
-        <v>HARRY</v>
+        <v>FRANCIS</v>
       </c>
       <c r="C111" t="str">
-        <v>2024-10-09 06:42:58</v>
+        <v>2024-10-11 13:50:51</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>5012</v>
+        <v>5003</v>
       </c>
       <c r="B112" t="str">
-        <v>HARRY</v>
+        <v>FRANCIS</v>
       </c>
       <c r="C112" t="str">
-        <v>2024-10-09 17:07:07</v>
+        <v>2024-10-16 09:21:46</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>5012</v>
+        <v>5003</v>
       </c>
       <c r="B113" t="str">
-        <v>HARRY</v>
+        <v>FRANCIS</v>
       </c>
       <c r="C113" t="str">
-        <v>2024-10-10 06:58:23</v>
+        <v>2024-10-16 16:18:11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>5012</v>
+        <v>5003</v>
       </c>
       <c r="B114" t="str">
-        <v>HARRY</v>
+        <v>FRANCIS</v>
       </c>
       <c r="C114" t="str">
-        <v>2024-10-10 17:00:01</v>
+        <v>2024-10-17 11:57:41</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>5012</v>
+        <v>5003</v>
       </c>
       <c r="B115" t="str">
-        <v>HARRY</v>
+        <v>FRANCIS</v>
       </c>
       <c r="C115" t="str">
-        <v>2024-10-11 06:46:41</v>
+        <v>2024-10-17 18:46:30</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>5012</v>
+        <v>5003</v>
       </c>
       <c r="B116" t="str">
-        <v>HARRY</v>
+        <v>FRANCIS</v>
       </c>
       <c r="C116" t="str">
-        <v>2024-10-11 17:00:51</v>
+        <v>2024-10-18 09:43:08</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>5012</v>
+        <v>5003</v>
       </c>
       <c r="B117" t="str">
-        <v>HARRY</v>
+        <v>FRANCIS</v>
       </c>
       <c r="C117" t="str">
-        <v>2024-10-14 06:49:17</v>
+        <v>2024-10-18 17:04:12</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>5012</v>
+        <v>5003</v>
       </c>
       <c r="B118" t="str">
-        <v>HARRY</v>
+        <v>FRANCIS</v>
       </c>
       <c r="C118" t="str">
-        <v>2024-10-14 06:49:19</v>
+        <v>2024-10-21 11:54:17</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2055</v>
+        <v>5003</v>
       </c>
       <c r="B119" t="str">
-        <v>PAULA</v>
+        <v>FRANCIS</v>
       </c>
       <c r="C119" t="str">
-        <v>2024-10-09 08:16:46</v>
+        <v>2024-10-21 14:49:07</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2055</v>
+        <v>5005</v>
       </c>
       <c r="B120" t="str">
-        <v>PAULA</v>
+        <v>ERIKA</v>
       </c>
       <c r="C120" t="str">
-        <v>2024-10-09 14:56:56</v>
+        <v>2024-10-08 14:52:31</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2055</v>
+        <v>5005</v>
       </c>
       <c r="B121" t="str">
-        <v>PAULA</v>
+        <v>ERIKA</v>
       </c>
       <c r="C121" t="str">
-        <v>2024-10-10 10:04:53</v>
+        <v>2024-10-08 17:37:56</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2055</v>
+        <v>5005</v>
       </c>
       <c r="B122" t="str">
-        <v>PAULA</v>
+        <v>ERIKA</v>
       </c>
       <c r="C122" t="str">
-        <v>2024-10-10 16:59:30</v>
+        <v>2024-10-09 10:03:27</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2055</v>
+        <v>5005</v>
       </c>
       <c r="B123" t="str">
-        <v>PAULA</v>
+        <v>ERIKA</v>
       </c>
       <c r="C123" t="str">
-        <v>2024-10-11 07:35:03</v>
+        <v>2024-10-09 18:52:29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2055</v>
+        <v>5005</v>
       </c>
       <c r="B124" t="str">
-        <v>PAULA</v>
+        <v>ERIKA</v>
       </c>
       <c r="C124" t="str">
-        <v>2024-10-11 11:45:48</v>
+        <v>2024-10-10 09:26:32</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2055</v>
+        <v>5005</v>
       </c>
       <c r="B125" t="str">
-        <v>PAULA</v>
+        <v>ERIKA</v>
       </c>
       <c r="C125" t="str">
-        <v>2024-10-14 06:39:03</v>
+        <v>2024-10-10 14:37:54</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>1016</v>
+        <v>5005</v>
       </c>
       <c r="B126" t="str">
-        <v>BONIFACIO</v>
+        <v>ERIKA</v>
       </c>
       <c r="C126" t="str">
-        <v>2024-10-09 08:56:02</v>
+        <v>2024-10-11 13:16:49</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>1016</v>
+        <v>5005</v>
       </c>
       <c r="B127" t="str">
-        <v>BONIFACIO</v>
+        <v>ERIKA</v>
       </c>
       <c r="C127" t="str">
-        <v>2024-10-09 14:06:32</v>
+        <v>2024-10-11 19:00:02</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>1016</v>
+        <v>5005</v>
       </c>
       <c r="B128" t="str">
-        <v>BONIFACIO</v>
+        <v>ERIKA</v>
       </c>
       <c r="C128" t="str">
-        <v>2024-10-10 08:50:08</v>
+        <v>2024-10-14 09:25:50</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>1016</v>
+        <v>5005</v>
       </c>
       <c r="B129" t="str">
-        <v>BONIFACIO</v>
+        <v>ERIKA</v>
       </c>
       <c r="C129" t="str">
-        <v>2024-10-10 17:56:04</v>
+        <v>2024-10-14 18:56:14</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>1016</v>
+        <v>5005</v>
       </c>
       <c r="B130" t="str">
-        <v>BONIFACIO</v>
+        <v>ERIKA</v>
       </c>
       <c r="C130" t="str">
-        <v>2024-10-11 09:37:12</v>
+        <v>2024-10-15 09:53:44</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>1016</v>
+        <v>5005</v>
       </c>
       <c r="B131" t="str">
-        <v>BONIFACIO</v>
+        <v>ERIKA</v>
       </c>
       <c r="C131" t="str">
-        <v>2024-10-11 16:33:16</v>
+        <v>2024-10-15 19:02:55</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>1021</v>
+        <v>5005</v>
       </c>
       <c r="B132" t="str">
-        <v>ERWYN</v>
+        <v>ERIKA</v>
       </c>
       <c r="C132" t="str">
-        <v>2024-10-09 12:04:35</v>
+        <v>2024-10-16 11:25:04</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>1021</v>
+        <v>5005</v>
       </c>
       <c r="B133" t="str">
-        <v>ERWYN</v>
+        <v>ERIKA</v>
       </c>
       <c r="C133" t="str">
-        <v>2024-10-09 19:01:08</v>
+        <v>2024-10-16 16:46:54</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>1021</v>
+        <v>5005</v>
       </c>
       <c r="B134" t="str">
-        <v>ERWYN</v>
+        <v>ERIKA</v>
       </c>
       <c r="C134" t="str">
-        <v>2024-10-10 09:59:06</v>
+        <v>2024-10-17 09:52:20</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>1021</v>
+        <v>5005</v>
       </c>
       <c r="B135" t="str">
-        <v>ERWYN</v>
+        <v>ERIKA</v>
       </c>
       <c r="C135" t="str">
-        <v>2024-10-10 18:26:22</v>
+        <v>2024-10-17 18:44:23</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>1021</v>
+        <v>5005</v>
       </c>
       <c r="B136" t="str">
-        <v>ERWYN</v>
+        <v>ERIKA</v>
       </c>
       <c r="C136" t="str">
-        <v>2024-10-11 09:52:34</v>
+        <v>2024-10-18 09:51:27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>1021</v>
+        <v>5005</v>
       </c>
       <c r="B137" t="str">
-        <v>ERWYN</v>
+        <v>ERIKA</v>
       </c>
       <c r="C137" t="str">
-        <v>2024-10-11 19:02:34</v>
+        <v>2024-10-18 16:38:00</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>1007</v>
+        <v>5005</v>
       </c>
       <c r="B138" t="str">
-        <v>1007</v>
+        <v>ERIKA</v>
       </c>
       <c r="C138" t="str">
-        <v>2024-10-09 07:56:30</v>
+        <v>2024-10-22 11:10:14</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>1007</v>
+        <v>5005</v>
       </c>
       <c r="B139" t="str">
-        <v>1007</v>
+        <v>ERIKA</v>
       </c>
       <c r="C139" t="str">
-        <v>2024-10-09 13:18:14</v>
+        <v>2024-10-22 12:52:08</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>1007</v>
+        <v>5006</v>
       </c>
       <c r="B140" t="str">
-        <v>1007</v>
+        <v>DENNY</v>
       </c>
       <c r="C140" t="str">
-        <v>2024-10-10 12:16:16</v>
+        <v>2024-10-08 07:48:39</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>1007</v>
+        <v>5006</v>
       </c>
       <c r="B141" t="str">
-        <v>1007</v>
+        <v>DENNY</v>
       </c>
       <c r="C141" t="str">
-        <v>2024-10-10 14:31:02</v>
+        <v>2024-10-08 17:04:34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>1007</v>
+        <v>5006</v>
       </c>
       <c r="B142" t="str">
-        <v>1007</v>
+        <v>DENNY</v>
       </c>
       <c r="C142" t="str">
-        <v>2024-10-11 09:18:40</v>
+        <v>2024-10-09 07:28:41</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>1007</v>
+        <v>5006</v>
       </c>
       <c r="B143" t="str">
-        <v>1007</v>
+        <v>DENNY</v>
       </c>
       <c r="C143" t="str">
-        <v>2024-10-11 12:57:21</v>
+        <v>2024-10-09 12:50:04</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>1007</v>
+        <v>5006</v>
       </c>
       <c r="B144" t="str">
-        <v>1007</v>
+        <v>DENNY</v>
       </c>
       <c r="C144" t="str">
-        <v>2024-10-14 07:54:54</v>
+        <v>2024-10-10 10:55:35</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>1008</v>
+        <v>5006</v>
       </c>
       <c r="B145" t="str">
-        <v>CESS</v>
+        <v>DENNY</v>
       </c>
       <c r="C145" t="str">
-        <v>2024-10-09 08:01:30</v>
+        <v>2024-10-10 16:11:02</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>1008</v>
+        <v>5006</v>
       </c>
       <c r="B146" t="str">
-        <v>CESS</v>
+        <v>DENNY</v>
       </c>
       <c r="C146" t="str">
-        <v>2024-10-09 14:17:03</v>
+        <v>2024-10-14 07:36:27</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>1008</v>
+        <v>5006</v>
       </c>
       <c r="B147" t="str">
-        <v>CESS</v>
+        <v>DENNY</v>
       </c>
       <c r="C147" t="str">
-        <v>2024-10-10 07:58:08</v>
+        <v>2024-10-14 13:00:08</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>1008</v>
+        <v>5006</v>
       </c>
       <c r="B148" t="str">
-        <v>CESS</v>
+        <v>DENNY</v>
       </c>
       <c r="C148" t="str">
-        <v>2024-10-10 17:05:07</v>
+        <v>2024-10-15 07:35:55</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>1008</v>
+        <v>5006</v>
       </c>
       <c r="B149" t="str">
-        <v>CESS</v>
+        <v>DENNY</v>
       </c>
       <c r="C149" t="str">
-        <v>2024-10-11 08:06:27</v>
+        <v>2024-10-15 12:46:54</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>1008</v>
+        <v>5006</v>
       </c>
       <c r="B150" t="str">
-        <v>CESS</v>
+        <v>DENNY</v>
       </c>
       <c r="C150" t="str">
-        <v>2024-10-11 09:16:16</v>
+        <v>2024-10-16 07:48:32</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>1008</v>
+        <v>5006</v>
       </c>
       <c r="B151" t="str">
-        <v>CESS</v>
+        <v>DENNY</v>
       </c>
       <c r="C151" t="str">
-        <v>2024-10-14 08:02:56</v>
+        <v>2024-10-16 14:56:21</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>1010</v>
+        <v>5006</v>
       </c>
       <c r="B152" t="str">
-        <v>ROXAN</v>
+        <v>DENNY</v>
       </c>
       <c r="C152" t="str">
-        <v>2024-10-09 08:02:59</v>
+        <v>2024-10-17 07:38:05</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>1010</v>
+        <v>5006</v>
       </c>
       <c r="B153" t="str">
-        <v>ROXAN</v>
+        <v>DENNY</v>
       </c>
       <c r="C153" t="str">
-        <v>2024-10-09 15:26:12</v>
+        <v>2024-10-17 16:32:05</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>1010</v>
+        <v>5006</v>
       </c>
       <c r="B154" t="str">
-        <v>ROXAN</v>
+        <v>DENNY</v>
       </c>
       <c r="C154" t="str">
-        <v>2024-10-10 09:28:26</v>
+        <v>2024-10-18 07:36:08</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>1010</v>
+        <v>5006</v>
       </c>
       <c r="B155" t="str">
-        <v>ROXAN</v>
+        <v>DENNY</v>
       </c>
       <c r="C155" t="str">
-        <v>2024-10-10 11:40:56</v>
+        <v>2024-10-18 17:04:03</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>1002</v>
+        <v>5006</v>
       </c>
       <c r="B156" t="str">
-        <v>AFRYL JOY</v>
+        <v>DENNY</v>
       </c>
       <c r="C156" t="str">
-        <v>2024-10-09 07:41:14</v>
+        <v>2024-10-21 07:38:40</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>1002</v>
+        <v>5006</v>
       </c>
       <c r="B157" t="str">
-        <v>AFRYL JOY</v>
+        <v>DENNY</v>
       </c>
       <c r="C157" t="str">
-        <v>2024-10-09 13:01:58</v>
+        <v>2024-10-22 07:33:04</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>1002</v>
+        <v>5007</v>
       </c>
       <c r="B158" t="str">
-        <v>AFRYL JOY</v>
+        <v>PAUL</v>
       </c>
       <c r="C158" t="str">
-        <v>2024-10-10 13:09:26</v>
+        <v>2024-10-11 16:45:16</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>1002</v>
+        <v>5007</v>
       </c>
       <c r="B159" t="str">
-        <v>AFRYL JOY</v>
+        <v>PAUL</v>
       </c>
       <c r="C159" t="str">
-        <v>2024-10-10 16:04:48</v>
+        <v>2024-10-15 13:06:06</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>1002</v>
+        <v>5007</v>
       </c>
       <c r="B160" t="str">
-        <v>AFRYL JOY</v>
+        <v>PAUL</v>
       </c>
       <c r="C160" t="str">
-        <v>2024-10-11 07:36:13</v>
+        <v>2024-10-15 13:43:06</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>1002</v>
+        <v>5007</v>
       </c>
       <c r="B161" t="str">
-        <v>AFRYL JOY</v>
+        <v>PAUL</v>
       </c>
       <c r="C161" t="str">
-        <v>2024-10-11 12:54:34</v>
+        <v>2024-10-17 10:41:30</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>1002</v>
+        <v>5007</v>
       </c>
       <c r="B162" t="str">
-        <v>AFRYL JOY</v>
+        <v>PAUL</v>
       </c>
       <c r="C162" t="str">
-        <v>2024-10-14 08:39:27</v>
+        <v>2024-10-18 09:29:59</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>1004</v>
+        <v>5007</v>
       </c>
       <c r="B163" t="str">
-        <v>HANNAH</v>
+        <v>PAUL</v>
       </c>
       <c r="C163" t="str">
-        <v>2024-10-09 07:14:06</v>
+        <v>2024-10-21 15:50:23</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>1004</v>
+        <v>5007</v>
       </c>
       <c r="B164" t="str">
-        <v>HANNAH</v>
+        <v>PAUL</v>
       </c>
       <c r="C164" t="str">
-        <v>2024-10-09 12:10:48</v>
+        <v>2024-10-22 09:32:04</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>1004</v>
+        <v>5008</v>
       </c>
       <c r="B165" t="str">
-        <v>HANNAH</v>
+        <v>MILES</v>
       </c>
       <c r="C165" t="str">
-        <v>2024-10-10 07:13:37</v>
+        <v>2024-10-08 07:59:23</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>1004</v>
+        <v>5008</v>
       </c>
       <c r="B166" t="str">
-        <v>HANNAH</v>
+        <v>MILES</v>
       </c>
       <c r="C166" t="str">
-        <v>2024-10-10 09:23:04</v>
+        <v>2024-10-08 17:02:47</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>1004</v>
+        <v>5008</v>
       </c>
       <c r="B167" t="str">
-        <v>HANNAH</v>
+        <v>MILES</v>
       </c>
       <c r="C167" t="str">
-        <v>2024-10-11 07:04:49</v>
+        <v>2024-10-09 07:34:28</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>1004</v>
+        <v>5008</v>
       </c>
       <c r="B168" t="str">
-        <v>HANNAH</v>
+        <v>MILES</v>
       </c>
       <c r="C168" t="str">
-        <v>2024-10-11 13:53:50</v>
+        <v>2024-10-09 17:01:49</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>1009</v>
+        <v>5008</v>
       </c>
       <c r="B169" t="str">
-        <v>JOHN</v>
+        <v>MILES</v>
       </c>
       <c r="C169" t="str">
-        <v>2024-10-09 07:42:23</v>
+        <v>2024-10-10 07:58:14</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>1009</v>
+        <v>5008</v>
       </c>
       <c r="B170" t="str">
-        <v>JOHN</v>
+        <v>MILES</v>
       </c>
       <c r="C170" t="str">
-        <v>2024-10-09 17:42:25</v>
+        <v>2024-10-10 17:02:19</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>1009</v>
+        <v>5008</v>
       </c>
       <c r="B171" t="str">
-        <v>JOHN</v>
+        <v>MILES</v>
       </c>
       <c r="C171" t="str">
-        <v>2024-10-10 07:31:53</v>
+        <v>2024-10-14 07:21:50</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>1009</v>
+        <v>5008</v>
       </c>
       <c r="B172" t="str">
-        <v>JOHN</v>
+        <v>MILES</v>
       </c>
       <c r="C172" t="str">
-        <v>2024-10-10 17:00:48</v>
+        <v>2024-10-14 17:03:27</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>1009</v>
+        <v>5008</v>
       </c>
       <c r="B173" t="str">
-        <v>JOHN</v>
+        <v>MILES</v>
       </c>
       <c r="C173" t="str">
-        <v>2024-10-11 08:02:31</v>
+        <v>2024-10-15 07:56:57</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>1009</v>
+        <v>5008</v>
       </c>
       <c r="B174" t="str">
-        <v>JOHN</v>
+        <v>MILES</v>
       </c>
       <c r="C174" t="str">
-        <v>2024-10-11 17:01:32</v>
+        <v>2024-10-15 12:49:55</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>1009</v>
+        <v>5008</v>
       </c>
       <c r="B175" t="str">
-        <v>JOHN</v>
+        <v>MILES</v>
       </c>
       <c r="C175" t="str">
-        <v>2024-10-14 07:34:17</v>
+        <v>2024-10-16 07:59:44</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>1009</v>
+        <v>5008</v>
       </c>
       <c r="B176" t="str">
-        <v>JOHN</v>
+        <v>MILES</v>
       </c>
       <c r="C176" t="str">
-        <v>2024-10-14 07:52:23</v>
+        <v>2024-10-16 17:01:23</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>1001</v>
+        <v>5008</v>
       </c>
       <c r="B177" t="str">
-        <v>HAYDEE</v>
+        <v>MILES</v>
       </c>
       <c r="C177" t="str">
-        <v>2024-10-10 11:36:08</v>
+        <v>2024-10-17 08:01:37</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>1001</v>
+        <v>5008</v>
       </c>
       <c r="B178" t="str">
-        <v>HAYDEE</v>
+        <v>MILES</v>
       </c>
       <c r="C178" t="str">
-        <v>2024-10-10 17:34:52</v>
+        <v>2024-10-17 17:02:49</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>1001</v>
+        <v>5008</v>
       </c>
       <c r="B179" t="str">
-        <v>HAYDEE</v>
+        <v>MILES</v>
       </c>
       <c r="C179" t="str">
-        <v>2024-10-11 10:14:17</v>
+        <v>2024-10-18 07:52:11</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>1026</v>
+        <v>5008</v>
       </c>
       <c r="B180" t="str">
-        <v>Johnpaul</v>
+        <v>MILES</v>
       </c>
       <c r="C180" t="str">
-        <v>2024-10-09 10:13:39</v>
+        <v>2024-10-18 17:01:28</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>1026</v>
+        <v>5008</v>
       </c>
       <c r="B181" t="str">
-        <v>Johnpaul</v>
+        <v>MILES</v>
       </c>
       <c r="C181" t="str">
-        <v>2024-10-09 14:52:43</v>
+        <v>2024-10-21 07:44:08</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>1026</v>
+        <v>5008</v>
       </c>
       <c r="B182" t="str">
-        <v>Johnpaul</v>
+        <v>MILES</v>
       </c>
       <c r="C182" t="str">
-        <v>2024-10-10 13:39:34</v>
+        <v>2024-10-21 17:04:11</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>1026</v>
+        <v>5008</v>
       </c>
       <c r="B183" t="str">
-        <v>Johnpaul</v>
+        <v>MILES</v>
       </c>
       <c r="C183" t="str">
-        <v>2024-10-10 15:14:08</v>
+        <v>2024-10-22 07:43:32</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>1026</v>
+        <v>5008</v>
       </c>
       <c r="B184" t="str">
-        <v>Johnpaul</v>
+        <v>MILES</v>
       </c>
       <c r="C184" t="str">
-        <v>2024-10-11 16:48:59</v>
+        <v>2024-10-22 12:49:15</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>1026</v>
+        <v>4011</v>
       </c>
       <c r="B185" t="str">
-        <v>Johnpaul</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C185" t="str">
-        <v>2024-10-11 16:52:31</v>
+        <v>2024-10-08 12:07:51</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>1026</v>
+        <v>4011</v>
       </c>
       <c r="B186" t="str">
-        <v>Johnpaul</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C186" t="str">
-        <v>2024-10-14 06:49:05</v>
+        <v>2024-10-08 13:11:52</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>1</v>
+        <v>4011</v>
       </c>
       <c r="B187" t="str">
-        <v>1</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C187" t="str">
-        <v>2024-10-11 18:41:03</v>
+        <v>2024-10-09 07:36:10</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>1</v>
+        <v>4011</v>
       </c>
       <c r="B188" t="str">
-        <v>1</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C188" t="str">
-        <v>2024-10-11 18:41:06</v>
+        <v>2024-10-09 13:17:20</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>808</v>
+        <v>4011</v>
       </c>
       <c r="B189" t="str">
-        <v>808</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C189" t="str">
-        <v>2024-10-11 09:40:49</v>
+        <v>2024-10-10 11:21:14</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>1028</v>
+        <v>4011</v>
       </c>
       <c r="B190" t="str">
-        <v>ANGELICA</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C190" t="str">
-        <v>2024-10-09 06:58:44</v>
+        <v>2024-10-10 14:59:19</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>1028</v>
+        <v>4011</v>
       </c>
       <c r="B191" t="str">
-        <v>ANGELICA</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C191" t="str">
-        <v>2024-10-09 17:03:04</v>
+        <v>2024-10-11 10:46:23</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>1028</v>
+        <v>4011</v>
       </c>
       <c r="B192" t="str">
-        <v>ANGELICA</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C192" t="str">
-        <v>2024-10-10 07:07:36</v>
+        <v>2024-10-11 16:57:07</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>1028</v>
+        <v>4011</v>
       </c>
       <c r="B193" t="str">
-        <v>ANGELICA</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C193" t="str">
-        <v>2024-10-10 17:02:35</v>
+        <v>2024-10-14 07:58:11</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>1028</v>
+        <v>4011</v>
       </c>
       <c r="B194" t="str">
-        <v>ANGELICA</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C194" t="str">
-        <v>2024-10-11 07:13:06</v>
+        <v>2024-10-14 11:27:05</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>1028</v>
+        <v>4011</v>
       </c>
       <c r="B195" t="str">
-        <v>ANGELICA</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C195" t="str">
-        <v>2024-10-11 17:05:31</v>
+        <v>2024-10-15 07:45:56</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>1028</v>
+        <v>4011</v>
       </c>
       <c r="B196" t="str">
-        <v>ANGELICA</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C196" t="str">
-        <v>2024-10-14 07:31:32</v>
+        <v>2024-10-15 14:29:33</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>609</v>
+        <v>4011</v>
       </c>
       <c r="B197" t="str">
-        <v>609</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C197" t="str">
-        <v>2024-10-09 14:28:16</v>
+        <v>2024-10-16 07:28:12</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>609</v>
+        <v>4011</v>
       </c>
       <c r="B198" t="str">
-        <v>609</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C198" t="str">
-        <v>2024-10-09 14:28:18</v>
+        <v>2024-10-16 13:08:47</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>3009</v>
+        <v>4011</v>
       </c>
       <c r="B199" t="str">
-        <v>3009</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C199" t="str">
-        <v>2024-10-09 07:58:54</v>
+        <v>2024-10-17 07:40:34</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>3009</v>
+        <v>4011</v>
       </c>
       <c r="B200" t="str">
-        <v>3009</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C200" t="str">
-        <v>2024-10-11 07:47:40</v>
+        <v>2024-10-17 13:08:38</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>2009</v>
+        <v>4011</v>
       </c>
       <c r="B201" t="str">
-        <v>Rachelle</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C201" t="str">
-        <v>2024-10-11 13:55:04</v>
+        <v>2024-10-18 07:33:00</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>12</v>
+        <v>4011</v>
       </c>
       <c r="B202" t="str">
-        <v>12</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C202" t="str">
-        <v>2024-10-09 11:38:04</v>
+        <v>2024-10-18 15:31:51</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>3</v>
+        <v>4011</v>
       </c>
       <c r="B203" t="str">
-        <v>3</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C203" t="str">
-        <v>2024-10-09 15:27:37</v>
+        <v>2024-10-21 07:51:14</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>3</v>
+        <v>4011</v>
       </c>
       <c r="B204" t="str">
-        <v>3</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C204" t="str">
-        <v>2024-10-09 19:39:30</v>
+        <v>2024-10-21 15:30:37</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>3</v>
+        <v>4011</v>
       </c>
       <c r="B205" t="str">
-        <v>3</v>
+        <v>ANDY RUSSEL</v>
       </c>
       <c r="C205" t="str">
-        <v>2024-10-10 18:03:05</v>
+        <v>2024-10-22 07:35:45</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>3</v>
+        <v>4008</v>
       </c>
       <c r="B206" t="str">
-        <v>3</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C206" t="str">
-        <v>2024-10-10 21:00:44</v>
+        <v>2024-10-08 07:45:58</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>3</v>
+        <v>4008</v>
       </c>
       <c r="B207" t="str">
-        <v>3</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C207" t="str">
-        <v>2024-10-11 15:13:22</v>
+        <v>2024-10-08 14:58:57</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>3</v>
+        <v>4008</v>
       </c>
       <c r="B208" t="str">
-        <v>3</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C208" t="str">
-        <v>2024-10-11 19:59:53</v>
+        <v>2024-10-09 07:46:17</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>4003</v>
+        <v>4008</v>
       </c>
       <c r="B209" t="str">
-        <v>4003</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C209" t="str">
-        <v>2024-10-11 07:24:51</v>
+        <v>2024-10-09 10:29:37</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>5013</v>
+        <v>4008</v>
       </c>
       <c r="B210" t="str">
-        <v>IRA</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C210" t="str">
-        <v>2024-10-09 07:28:46</v>
+        <v>2024-10-10 16:17:31</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>5013</v>
+        <v>4008</v>
       </c>
       <c r="B211" t="str">
-        <v>IRA</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C211" t="str">
-        <v>2024-10-09 17:03:31</v>
+        <v>2024-10-10 16:17:34</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>5013</v>
+        <v>4008</v>
       </c>
       <c r="B212" t="str">
-        <v>IRA</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C212" t="str">
-        <v>2024-10-10 07:41:35</v>
+        <v>2024-10-11 13:15:46</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>5013</v>
+        <v>4008</v>
       </c>
       <c r="B213" t="str">
-        <v>IRA</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C213" t="str">
-        <v>2024-10-10 17:02:12</v>
+        <v>2024-10-11 13:34:51</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>5013</v>
+        <v>4008</v>
       </c>
       <c r="B214" t="str">
-        <v>IRA</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C214" t="str">
-        <v>2024-10-11 08:10:32</v>
+        <v>2024-10-14 07:48:47</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>5013</v>
+        <v>4008</v>
       </c>
       <c r="B215" t="str">
-        <v>IRA</v>
+        <v>MAECHELLE</v>
       </c>
       <c r="C215" t="str">
-        <v>2024-10-11 17:06:59</v>
+        <v>2024-10-14 13:11:26</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>4008</v>
+      </c>
+      <c r="B216" t="str">
+        <v>MAECHELLE</v>
+      </c>
+      <c r="C216" t="str">
+        <v>2024-10-15 13:01:31</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>4008</v>
+      </c>
+      <c r="B217" t="str">
+        <v>MAECHELLE</v>
+      </c>
+      <c r="C217" t="str">
+        <v>2024-10-15 14:27:17</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>4008</v>
+      </c>
+      <c r="B218" t="str">
+        <v>MAECHELLE</v>
+      </c>
+      <c r="C218" t="str">
+        <v>2024-10-16 10:39:29</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>4008</v>
+      </c>
+      <c r="B219" t="str">
+        <v>MAECHELLE</v>
+      </c>
+      <c r="C219" t="str">
+        <v>2024-10-16 15:52:33</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>4008</v>
+      </c>
+      <c r="B220" t="str">
+        <v>MAECHELLE</v>
+      </c>
+      <c r="C220" t="str">
+        <v>2024-10-17 07:48:48</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>4008</v>
+      </c>
+      <c r="B221" t="str">
+        <v>MAECHELLE</v>
+      </c>
+      <c r="C221" t="str">
+        <v>2024-10-17 15:44:13</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>4008</v>
+      </c>
+      <c r="B222" t="str">
+        <v>MAECHELLE</v>
+      </c>
+      <c r="C222" t="str">
+        <v>2024-10-18 07:45:55</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>4008</v>
+      </c>
+      <c r="B223" t="str">
+        <v>MAECHELLE</v>
+      </c>
+      <c r="C223" t="str">
+        <v>2024-10-18 15:37:01</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>4008</v>
+      </c>
+      <c r="B224" t="str">
+        <v>MAECHELLE</v>
+      </c>
+      <c r="C224" t="str">
+        <v>2024-10-21 07:47:13</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>4008</v>
+      </c>
+      <c r="B225" t="str">
+        <v>MAECHELLE</v>
+      </c>
+      <c r="C225" t="str">
+        <v>2024-10-21 15:55:29</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>4008</v>
+      </c>
+      <c r="B226" t="str">
+        <v>MAECHELLE</v>
+      </c>
+      <c r="C226" t="str">
+        <v>2024-10-22 12:07:13</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>4008</v>
+      </c>
+      <c r="B227" t="str">
+        <v>MAECHELLE</v>
+      </c>
+      <c r="C227" t="str">
+        <v>2024-10-22 12:07:19</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B228" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C228" t="str">
+        <v>2024-10-08 11:27:38</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B229" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C229" t="str">
+        <v>2024-10-08 18:07:21</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B230" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C230" t="str">
+        <v>2024-10-10 13:05:33</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B231" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C231" t="str">
+        <v>2024-10-10 19:07:44</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B232" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C232" t="str">
+        <v>2024-10-11 18:51:01</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B233" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C233" t="str">
+        <v>2024-10-11 18:55:04</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B234" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C234" t="str">
+        <v>2024-10-14 10:55:01</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B235" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C235" t="str">
+        <v>2024-10-14 18:16:08</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B236" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C236" t="str">
+        <v>2024-10-15 12:38:19</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B237" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C237" t="str">
+        <v>2024-10-15 17:25:25</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B238" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C238" t="str">
+        <v>2024-10-16 12:10:11</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B239" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C239" t="str">
+        <v>2024-10-16 18:38:20</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B240" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C240" t="str">
+        <v>2024-10-17 09:28:33</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B241" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C241" t="str">
+        <v>2024-10-17 19:34:07</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B242" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C242" t="str">
+        <v>2024-10-18 09:04:16</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B243" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C243" t="str">
+        <v>2024-10-18 18:36:02</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B244" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C244" t="str">
+        <v>2024-10-21 10:45:58</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B245" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C245" t="str">
+        <v>2024-10-21 17:38:49</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>4009</v>
+      </c>
+      <c r="B246" t="str">
+        <v>HUBERT LOPEZ</v>
+      </c>
+      <c r="C246" t="str">
+        <v>2024-10-22 11:09:42</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B247" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C247" t="str">
+        <v>2024-10-08 06:45:42</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B248" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C248" t="str">
+        <v>2024-10-08 17:00:14</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B249" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C249" t="str">
+        <v>2024-10-09 06:57:26</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B250" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C250" t="str">
+        <v>2024-10-09 17:06:56</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B251" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C251" t="str">
+        <v>2024-10-10 06:49:09</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B252" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C252" t="str">
+        <v>2024-10-10 17:00:05</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B253" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C253" t="str">
+        <v>2024-10-11 06:43:03</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B254" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C254" t="str">
+        <v>2024-10-11 17:00:48</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B255" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C255" t="str">
+        <v>2024-10-14 06:50:42</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B256" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C256" t="str">
+        <v>2024-10-14 17:00:07</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B257" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C257" t="str">
+        <v>2024-10-15 06:49:46</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B258" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C258" t="str">
+        <v>2024-10-15 17:00:43</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B259" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C259" t="str">
+        <v>2024-10-16 06:47:09</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B260" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C260" t="str">
+        <v>2024-10-16 17:00:47</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B261" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C261" t="str">
+        <v>2024-10-17 06:52:02</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B262" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C262" t="str">
+        <v>2024-10-17 17:02:04</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B263" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C263" t="str">
+        <v>2024-10-18 07:02:35</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B264" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C264" t="str">
+        <v>2024-10-18 17:00:26</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B265" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C265" t="str">
+        <v>2024-10-21 06:52:14</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B266" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C266" t="str">
+        <v>2024-10-21 17:00:50</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>5010</v>
+      </c>
+      <c r="B267" t="str">
+        <v>CORTEJO</v>
+      </c>
+      <c r="C267" t="str">
+        <v>2024-10-22 06:57:08</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B268" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C268" t="str">
+        <v>2024-10-08 07:00:38</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B269" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C269" t="str">
+        <v>2024-10-08 17:03:13</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B270" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C270" t="str">
+        <v>2024-10-09 12:18:31</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B271" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C271" t="str">
+        <v>2024-10-09 17:06:59</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B272" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C272" t="str">
+        <v>2024-10-10 06:43:39</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B273" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C273" t="str">
+        <v>2024-10-10 17:00:20</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B274" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C274" t="str">
+        <v>2024-10-11 07:16:24</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B275" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C275" t="str">
+        <v>2024-10-11 17:00:54</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B276" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C276" t="str">
+        <v>2024-10-14 07:12:32</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B277" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C277" t="str">
+        <v>2024-10-14 17:00:15</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B278" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C278" t="str">
+        <v>2024-10-15 07:03:19</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B279" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C279" t="str">
+        <v>2024-10-15 17:00:41</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B280" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C280" t="str">
+        <v>2024-10-16 07:08:07</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B281" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C281" t="str">
+        <v>2024-10-16 17:02:49</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B282" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C282" t="str">
+        <v>2024-10-17 07:14:54</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B283" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C283" t="str">
+        <v>2024-10-17 21:00:25</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B284" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C284" t="str">
+        <v>2024-10-18 07:02:44</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B285" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C285" t="str">
+        <v>2024-10-18 17:00:32</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B286" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C286" t="str">
+        <v>2024-10-21 08:02:40</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B287" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C287" t="str">
+        <v>2024-10-21 17:00:43</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B288" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C288" t="str">
+        <v>2024-10-22 08:29:12</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>5011</v>
+      </c>
+      <c r="B289" t="str">
+        <v>VINCENT</v>
+      </c>
+      <c r="C289" t="str">
+        <v>2024-10-22 12:53:29</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B290" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C290" t="str">
+        <v>2024-10-09 08:00:10</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B291" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C291" t="str">
+        <v>2024-10-09 14:39:04</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B292" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C292" t="str">
+        <v>2024-10-10 07:28:36</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B293" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C293" t="str">
+        <v>2024-10-10 15:56:51</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B294" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C294" t="str">
+        <v>2024-10-11 08:08:02</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B295" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C295" t="str">
+        <v>2024-10-11 15:19:30</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B296" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C296" t="str">
+        <v>2024-10-14 07:47:25</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B297" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C297" t="str">
+        <v>2024-10-14 16:59:29</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B298" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C298" t="str">
+        <v>2024-10-15 07:47:11</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B299" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C299" t="str">
+        <v>2024-10-15 15:56:26</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B300" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C300" t="str">
+        <v>2024-10-16 07:06:04</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B301" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C301" t="str">
+        <v>2024-10-16 15:03:17</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B302" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C302" t="str">
+        <v>2024-10-17 06:51:27</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B303" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C303" t="str">
+        <v>2024-10-17 14:27:31</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B304" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C304" t="str">
+        <v>2024-10-18 08:08:26</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B305" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C305" t="str">
+        <v>2024-10-18 16:21:30</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B306" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C306" t="str">
+        <v>2024-10-19 07:22:14</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B307" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C307" t="str">
+        <v>2024-10-21 10:01:19</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B308" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C308" t="str">
+        <v>2024-10-21 13:46:11</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B309" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C309" t="str">
+        <v>2024-10-22 09:00:36</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>1025</v>
+      </c>
+      <c r="B310" t="str">
+        <v>Lyndon</v>
+      </c>
+      <c r="C310" t="str">
+        <v>2024-10-22 11:27:49</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B311" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C311" t="str">
+        <v>2024-10-08 07:07:11</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B312" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C312" t="str">
+        <v>2024-10-08 19:50:06</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B313" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C313" t="str">
+        <v>2024-10-09 12:20:46</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B314" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C314" t="str">
+        <v>2024-10-09 19:07:41</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B315" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C315" t="str">
+        <v>2024-10-10 12:45:38</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B316" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C316" t="str">
+        <v>2024-10-10 14:37:22</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B317" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C317" t="str">
+        <v>2024-10-11 11:52:05</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B318" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C318" t="str">
+        <v>2024-10-11 21:00:58</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B319" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C319" t="str">
+        <v>2024-10-14 16:43:02</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B320" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C320" t="str">
+        <v>2024-10-14 20:51:34</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B321" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C321" t="str">
+        <v>2024-10-15 15:21:11</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B322" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C322" t="str">
+        <v>2024-10-15 21:07:35</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B323" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C323" t="str">
+        <v>2024-10-16 15:43:38</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B324" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C324" t="str">
+        <v>2024-10-16 19:52:43</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B325" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C325" t="str">
+        <v>2024-10-17 11:58:39</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B326" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C326" t="str">
+        <v>2024-10-17 19:21:09</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B327" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C327" t="str">
+        <v>2024-10-18 12:29:01</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B328" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C328" t="str">
+        <v>2024-10-18 21:10:00</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B329" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C329" t="str">
+        <v>2024-10-19 06:36:47</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B330" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C330" t="str">
+        <v>2024-10-19 11:17:16</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B331" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C331" t="str">
+        <v>2024-10-21 16:01:52</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B332" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C332" t="str">
+        <v>2024-10-21 19:26:59</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>1027</v>
+      </c>
+      <c r="B333" t="str">
+        <v>Lordemil</v>
+      </c>
+      <c r="C333" t="str">
+        <v>2024-10-22 12:13:33</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B334" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C334" t="str">
+        <v>2024-10-08 07:53:53</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B335" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C335" t="str">
+        <v>2024-10-08 15:42:54</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B336" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C336" t="str">
+        <v>2024-10-09 07:42:16</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B337" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C337" t="str">
+        <v>2024-10-09 15:28:39</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B338" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C338" t="str">
+        <v>2024-10-11 07:59:19</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B339" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C339" t="str">
+        <v>2024-10-11 14:31:09</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B340" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C340" t="str">
+        <v>2024-10-14 07:41:16</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B341" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C341" t="str">
+        <v>2024-10-14 16:05:48</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B342" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C342" t="str">
+        <v>2024-10-15 07:46:54</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B343" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C343" t="str">
+        <v>2024-10-15 16:31:33</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B344" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C344" t="str">
+        <v>2024-10-16 07:56:10</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B345" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C345" t="str">
+        <v>2024-10-16 12:05:45</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B346" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C346" t="str">
+        <v>2024-10-17 09:58:56</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B347" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C347" t="str">
+        <v>2024-10-17 14:24:19</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B348" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C348" t="str">
+        <v>2024-10-18 07:45:05</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B349" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C349" t="str">
+        <v>2024-10-18 15:08:37</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B350" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C350" t="str">
+        <v>2024-10-21 07:33:54</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B351" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C351" t="str">
+        <v>2024-10-21 16:59:21</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B352" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C352" t="str">
+        <v>2024-10-22 10:07:08</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>1024</v>
+      </c>
+      <c r="B353" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="C353" t="str">
+        <v>2024-10-22 12:22:23</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B354" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C354" t="str">
+        <v>2024-10-08 06:50:41</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B355" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C355" t="str">
+        <v>2024-10-08 17:00:04</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B356" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C356" t="str">
+        <v>2024-10-09 06:42:58</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B357" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C357" t="str">
+        <v>2024-10-09 17:07:07</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B358" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C358" t="str">
+        <v>2024-10-10 06:58:23</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B359" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C359" t="str">
+        <v>2024-10-10 17:00:01</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B360" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C360" t="str">
+        <v>2024-10-11 06:46:41</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B361" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C361" t="str">
+        <v>2024-10-11 17:00:51</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B362" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C362" t="str">
+        <v>2024-10-14 06:49:17</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B363" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C363" t="str">
+        <v>2024-10-14 17:00:01</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B364" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C364" t="str">
+        <v>2024-10-15 06:54:12</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B365" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C365" t="str">
+        <v>2024-10-15 17:00:34</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B366" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C366" t="str">
+        <v>2024-10-16 06:49:30</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B367" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C367" t="str">
+        <v>2024-10-16 17:00:46</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B368" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C368" t="str">
+        <v>2024-10-17 06:56:43</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B369" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C369" t="str">
+        <v>2024-10-17 21:00:14</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B370" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C370" t="str">
+        <v>2024-10-18 06:58:35</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B371" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C371" t="str">
+        <v>2024-10-18 17:00:21</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B372" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C372" t="str">
+        <v>2024-10-21 06:52:17</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B373" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C373" t="str">
+        <v>2024-10-21 17:00:47</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>5012</v>
+      </c>
+      <c r="B374" t="str">
+        <v>HARRY</v>
+      </c>
+      <c r="C374" t="str">
+        <v>2024-10-22 06:50:50</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B375" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C375" t="str">
+        <v>2024-10-08 07:11:27</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B376" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C376" t="str">
+        <v>2024-10-08 16:28:00</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B377" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C377" t="str">
+        <v>2024-10-09 08:16:46</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B378" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C378" t="str">
+        <v>2024-10-09 14:56:56</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B379" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C379" t="str">
+        <v>2024-10-10 10:04:53</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B380" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C380" t="str">
+        <v>2024-10-10 16:59:30</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B381" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C381" t="str">
+        <v>2024-10-11 07:35:03</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B382" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C382" t="str">
+        <v>2024-10-11 11:45:48</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B383" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C383" t="str">
+        <v>2024-10-14 06:39:03</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B384" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C384" t="str">
+        <v>2024-10-14 16:31:54</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B385" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C385" t="str">
+        <v>2024-10-15 07:26:10</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B386" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C386" t="str">
+        <v>2024-10-15 16:49:27</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B387" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C387" t="str">
+        <v>2024-10-16 07:55:02</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B388" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C388" t="str">
+        <v>2024-10-16 16:55:42</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B389" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C389" t="str">
+        <v>2024-10-17 09:20:44</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B390" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C390" t="str">
+        <v>2024-10-17 14:48:36</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B391" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C391" t="str">
+        <v>2024-10-18 07:18:22</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B392" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C392" t="str">
+        <v>2024-10-18 16:14:54</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B393" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C393" t="str">
+        <v>2024-10-21 07:23:31</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B394" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C394" t="str">
+        <v>2024-10-21 13:44:03</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B395" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C395" t="str">
+        <v>2024-10-22 07:31:02</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>2055</v>
+      </c>
+      <c r="B396" t="str">
+        <v>PAULA</v>
+      </c>
+      <c r="C396" t="str">
+        <v>2024-10-22 10:25:37</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B397" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C397" t="str">
+        <v>2024-10-08 08:51:48</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B398" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C398" t="str">
+        <v>2024-10-08 20:30:17</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B399" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C399" t="str">
+        <v>2024-10-09 08:56:02</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B400" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C400" t="str">
+        <v>2024-10-09 14:06:32</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B401" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C401" t="str">
+        <v>2024-10-10 08:50:08</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B402" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C402" t="str">
+        <v>2024-10-10 17:56:04</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B403" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C403" t="str">
+        <v>2024-10-11 09:37:12</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B404" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C404" t="str">
+        <v>2024-10-11 16:33:16</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B405" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C405" t="str">
+        <v>2024-10-14 13:50:57</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B406" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C406" t="str">
+        <v>2024-10-14 16:19:40</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B407" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C407" t="str">
+        <v>2024-10-15 09:10:21</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B408" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C408" t="str">
+        <v>2024-10-15 17:45:44</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B409" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C409" t="str">
+        <v>2024-10-16 08:53:25</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B410" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C410" t="str">
+        <v>2024-10-16 17:56:49</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B411" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C411" t="str">
+        <v>2024-10-17 10:59:17</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B412" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C412" t="str">
+        <v>2024-10-17 17:53:21</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B413" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C413" t="str">
+        <v>2024-10-18 05:55:20</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B414" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C414" t="str">
+        <v>2024-10-18 19:17:54</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B415" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C415" t="str">
+        <v>2024-10-22 08:58:55</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>1016</v>
+      </c>
+      <c r="B416" t="str">
+        <v>BONIFACIO</v>
+      </c>
+      <c r="C416" t="str">
+        <v>2024-10-22 09:14:28</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B417" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C417" t="str">
+        <v>2024-10-08 09:45:18</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B418" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C418" t="str">
+        <v>2024-10-08 18:49:31</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B419" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C419" t="str">
+        <v>2024-10-09 12:04:35</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B420" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C420" t="str">
+        <v>2024-10-09 19:01:08</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B421" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C421" t="str">
+        <v>2024-10-10 09:59:06</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B422" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C422" t="str">
+        <v>2024-10-10 18:26:22</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B423" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C423" t="str">
+        <v>2024-10-11 09:52:34</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B424" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C424" t="str">
+        <v>2024-10-11 19:02:34</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B425" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C425" t="str">
+        <v>2024-10-14 09:40:05</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B426" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C426" t="str">
+        <v>2024-10-14 14:35:33</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B427" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C427" t="str">
+        <v>2024-10-15 13:44:04</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B428" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C428" t="str">
+        <v>2024-10-15 18:03:30</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B429" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C429" t="str">
+        <v>2024-10-16 16:58:27</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B430" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C430" t="str">
+        <v>2024-10-16 19:01:28</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B431" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C431" t="str">
+        <v>2024-10-17 16:35:25</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B432" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C432" t="str">
+        <v>2024-10-17 18:17:45</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B433" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C433" t="str">
+        <v>2024-10-18 12:42:36</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B434" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C434" t="str">
+        <v>2024-10-18 18:46:59</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B435" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C435" t="str">
+        <v>2024-10-21 13:08:22</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>1021</v>
+      </c>
+      <c r="B436" t="str">
+        <v>ERWYN</v>
+      </c>
+      <c r="C436" t="str">
+        <v>2024-10-21 19:02:26</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B437" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C437" t="str">
+        <v>2024-10-08 08:26:26</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B438" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C438" t="str">
+        <v>2024-10-08 11:03:58</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B439" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C439" t="str">
+        <v>2024-10-09 07:56:30</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B440" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C440" t="str">
+        <v>2024-10-09 13:18:14</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B441" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C441" t="str">
+        <v>2024-10-10 12:16:16</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B442" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C442" t="str">
+        <v>2024-10-10 14:31:02</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B443" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C443" t="str">
+        <v>2024-10-11 09:18:40</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B444" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C444" t="str">
+        <v>2024-10-11 12:57:21</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B445" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C445" t="str">
+        <v>2024-10-14 07:54:54</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B446" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C446" t="str">
+        <v>2024-10-14 13:17:26</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B447" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C447" t="str">
+        <v>2024-10-15 07:39:49</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B448" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C448" t="str">
+        <v>2024-10-15 11:59:59</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B449" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C449" t="str">
+        <v>2024-10-16 09:30:04</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B450" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C450" t="str">
+        <v>2024-10-16 15:34:22</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B451" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C451" t="str">
+        <v>2024-10-18 07:57:08</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B452" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C452" t="str">
+        <v>2024-10-18 10:49:00</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B453" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C453" t="str">
+        <v>2024-10-21 07:55:44</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B454" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C454" t="str">
+        <v>2024-10-21 17:02:22</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B455" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C455" t="str">
+        <v>2024-10-22 09:44:01</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>1007</v>
+      </c>
+      <c r="B456" t="str">
+        <v>1007</v>
+      </c>
+      <c r="C456" t="str">
+        <v>2024-10-22 12:10:21</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B457" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C457" t="str">
+        <v>2024-10-08 07:56:08</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B458" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C458" t="str">
+        <v>2024-10-08 11:10:06</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B459" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C459" t="str">
+        <v>2024-10-09 08:01:30</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B460" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C460" t="str">
+        <v>2024-10-09 14:17:03</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B461" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C461" t="str">
+        <v>2024-10-10 07:58:08</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B462" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C462" t="str">
+        <v>2024-10-10 17:05:07</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B463" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C463" t="str">
+        <v>2024-10-11 08:06:27</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B464" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C464" t="str">
+        <v>2024-10-11 09:16:16</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B465" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C465" t="str">
+        <v>2024-10-14 08:02:56</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B466" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C466" t="str">
+        <v>2024-10-14 11:55:28</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B467" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C467" t="str">
+        <v>2024-10-15 07:59:21</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B468" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C468" t="str">
+        <v>2024-10-15 17:05:05</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B469" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C469" t="str">
+        <v>2024-10-16 08:00:55</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B470" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C470" t="str">
+        <v>2024-10-16 16:40:24</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B471" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C471" t="str">
+        <v>2024-10-17 08:10:43</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B472" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C472" t="str">
+        <v>2024-10-17 16:41:11</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B473" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C473" t="str">
+        <v>2024-10-18 08:11:32</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B474" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C474" t="str">
+        <v>2024-10-18 19:30:44</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B475" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C475" t="str">
+        <v>2024-10-21 08:17:09</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B476" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C476" t="str">
+        <v>2024-10-21 18:23:02</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B477" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C477" t="str">
+        <v>2024-10-22 08:07:32</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>1008</v>
+      </c>
+      <c r="B478" t="str">
+        <v>CESS</v>
+      </c>
+      <c r="C478" t="str">
+        <v>2024-10-22 11:54:05</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B479" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C479" t="str">
+        <v>2024-10-08 10:21:06</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B480" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C480" t="str">
+        <v>2024-10-09 08:02:59</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B481" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C481" t="str">
+        <v>2024-10-09 15:26:12</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B482" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C482" t="str">
+        <v>2024-10-10 09:28:26</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B483" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C483" t="str">
+        <v>2024-10-10 11:40:56</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B484" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C484" t="str">
+        <v>2024-10-14 12:27:57</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B485" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C485" t="str">
+        <v>2024-10-14 14:17:41</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B486" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C486" t="str">
+        <v>2024-10-15 12:15:29</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B487" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C487" t="str">
+        <v>2024-10-15 14:06:03</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B488" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C488" t="str">
+        <v>2024-10-16 08:02:43</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B489" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C489" t="str">
+        <v>2024-10-16 16:09:36</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B490" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C490" t="str">
+        <v>2024-10-17 10:23:52</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B491" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C491" t="str">
+        <v>2024-10-17 16:32:57</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B492" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C492" t="str">
+        <v>2024-10-18 08:01:00</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B493" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C493" t="str">
+        <v>2024-10-18 15:38:55</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B494" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C494" t="str">
+        <v>2024-10-21 11:20:11</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B495" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C495" t="str">
+        <v>2024-10-21 14:02:29</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>1010</v>
+      </c>
+      <c r="B496" t="str">
+        <v>ROXAN</v>
+      </c>
+      <c r="C496" t="str">
+        <v>2024-10-22 07:50:29</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B497" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C497" t="str">
+        <v>2024-10-08 07:35:44</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B498" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C498" t="str">
+        <v>2024-10-08 12:54:35</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B499" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C499" t="str">
+        <v>2024-10-09 07:41:14</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B500" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C500" t="str">
+        <v>2024-10-09 13:01:58</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B501" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C501" t="str">
+        <v>2024-10-10 13:09:26</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B502" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C502" t="str">
+        <v>2024-10-10 16:04:48</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B503" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C503" t="str">
+        <v>2024-10-11 07:36:13</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B504" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C504" t="str">
+        <v>2024-10-11 12:54:34</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B505" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C505" t="str">
+        <v>2024-10-14 08:39:27</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B506" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C506" t="str">
+        <v>2024-10-14 13:03:49</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B507" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C507" t="str">
+        <v>2024-10-15 07:36:26</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B508" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C508" t="str">
+        <v>2024-10-15 08:48:03</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B509" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C509" t="str">
+        <v>2024-10-16 07:36:20</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B510" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C510" t="str">
+        <v>2024-10-16 16:29:30</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B511" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C511" t="str">
+        <v>2024-10-17 07:40:43</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B512" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C512" t="str">
+        <v>2024-10-17 12:59:53</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B513" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C513" t="str">
+        <v>2024-10-18 07:40:35</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B514" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C514" t="str">
+        <v>2024-10-18 13:37:24</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B515" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C515" t="str">
+        <v>2024-10-21 09:45:09</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B516" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C516" t="str">
+        <v>2024-10-21 16:37:24</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B517" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C517" t="str">
+        <v>2024-10-22 07:30:42</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>1002</v>
+      </c>
+      <c r="B518" t="str">
+        <v>AFRYL JOY</v>
+      </c>
+      <c r="C518" t="str">
+        <v>2024-10-22 08:56:57</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>10</v>
+      </c>
+      <c r="B519" t="str">
+        <v>10</v>
+      </c>
+      <c r="C519" t="str">
+        <v>2024-10-16 16:33:37</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>10</v>
+      </c>
+      <c r="B520" t="str">
+        <v>10</v>
+      </c>
+      <c r="C520" t="str">
+        <v>2024-10-16 16:44:42</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B521" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C521" t="str">
+        <v>2024-10-08 13:09:34</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B522" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C522" t="str">
+        <v>2024-10-08 18:14:58</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B523" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C523" t="str">
+        <v>2024-10-09 07:14:06</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B524" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C524" t="str">
+        <v>2024-10-09 12:10:48</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B525" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C525" t="str">
+        <v>2024-10-10 07:13:37</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B526" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C526" t="str">
+        <v>2024-10-10 09:23:04</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B527" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C527" t="str">
+        <v>2024-10-11 07:04:49</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B528" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C528" t="str">
+        <v>2024-10-11 13:53:50</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B529" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C529" t="str">
+        <v>2024-10-14 08:46:19</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B530" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C530" t="str">
+        <v>2024-10-14 10:37:01</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B531" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C531" t="str">
+        <v>2024-10-15 07:10:37</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B532" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C532" t="str">
+        <v>2024-10-15 13:27:45</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B533" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C533" t="str">
+        <v>2024-10-16 07:52:35</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B534" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C534" t="str">
+        <v>2024-10-16 15:40:41</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B535" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C535" t="str">
+        <v>2024-10-17 09:28:24</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B536" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C536" t="str">
+        <v>2024-10-17 14:08:07</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B537" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C537" t="str">
+        <v>2024-10-18 10:56:48</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B538" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C538" t="str">
+        <v>2024-10-18 11:59:39</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B539" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C539" t="str">
+        <v>2024-10-21 07:03:33</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B540" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C540" t="str">
+        <v>2024-10-21 11:24:41</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B541" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C541" t="str">
+        <v>2024-10-22 07:51:54</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>1004</v>
+      </c>
+      <c r="B542" t="str">
+        <v>HANNAH</v>
+      </c>
+      <c r="C542" t="str">
+        <v>2024-10-22 10:31:53</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B543" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C543" t="str">
+        <v>2024-10-08 09:42:02</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B544" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C544" t="str">
+        <v>2024-10-08 20:59:03</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B545" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C545" t="str">
+        <v>2024-10-09 07:42:23</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B546" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C546" t="str">
+        <v>2024-10-09 17:42:25</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B547" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C547" t="str">
+        <v>2024-10-10 07:31:53</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B548" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C548" t="str">
+        <v>2024-10-10 17:00:48</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B549" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C549" t="str">
+        <v>2024-10-11 08:02:31</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B550" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C550" t="str">
+        <v>2024-10-11 17:01:32</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B551" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C551" t="str">
+        <v>2024-10-14 07:34:17</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B552" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C552" t="str">
+        <v>2024-10-14 17:31:36</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B553" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C553" t="str">
+        <v>2024-10-15 07:48:56</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B554" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C554" t="str">
+        <v>2024-10-15 13:45:29</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B555" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C555" t="str">
+        <v>2024-10-16 07:43:22</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B556" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C556" t="str">
+        <v>2024-10-16 17:01:15</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B557" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C557" t="str">
+        <v>2024-10-17 07:41:00</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B558" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C558" t="str">
+        <v>2024-10-17 17:02:02</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B559" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C559" t="str">
+        <v>2024-10-18 07:45:19</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B560" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C560" t="str">
+        <v>2024-10-18 10:39:27</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B561" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C561" t="str">
+        <v>2024-10-21 07:33:59</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B562" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C562" t="str">
+        <v>2024-10-21 17:01:28</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B563" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C563" t="str">
+        <v>2024-10-22 07:35:50</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="str">
+        <v>1009</v>
+      </c>
+      <c r="B564" t="str">
+        <v>JOHN</v>
+      </c>
+      <c r="C564" t="str">
+        <v>2024-10-22 12:39:59</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="str">
+        <v>1001</v>
+      </c>
+      <c r="B565" t="str">
+        <v>HAYDEE</v>
+      </c>
+      <c r="C565" t="str">
+        <v>2024-10-08 12:13:08</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="str">
+        <v>1001</v>
+      </c>
+      <c r="B566" t="str">
+        <v>HAYDEE</v>
+      </c>
+      <c r="C566" t="str">
+        <v>2024-10-08 14:39:00</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="str">
+        <v>1001</v>
+      </c>
+      <c r="B567" t="str">
+        <v>HAYDEE</v>
+      </c>
+      <c r="C567" t="str">
+        <v>2024-10-10 11:36:08</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="str">
+        <v>1001</v>
+      </c>
+      <c r="B568" t="str">
+        <v>HAYDEE</v>
+      </c>
+      <c r="C568" t="str">
+        <v>2024-10-10 17:34:52</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="str">
+        <v>1001</v>
+      </c>
+      <c r="B569" t="str">
+        <v>HAYDEE</v>
+      </c>
+      <c r="C569" t="str">
+        <v>2024-10-11 10:14:17</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B570" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C570" t="str">
+        <v>2024-10-08 10:56:19</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B571" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C571" t="str">
+        <v>2024-10-08 16:11:56</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B572" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C572" t="str">
+        <v>2024-10-09 10:13:39</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B573" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C573" t="str">
+        <v>2024-10-09 14:52:43</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B574" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C574" t="str">
+        <v>2024-10-10 13:39:34</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B575" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C575" t="str">
+        <v>2024-10-10 15:14:08</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B576" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C576" t="str">
+        <v>2024-10-11 16:48:59</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B577" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C577" t="str">
+        <v>2024-10-11 16:52:31</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B578" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C578" t="str">
+        <v>2024-10-14 06:49:05</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B579" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C579" t="str">
+        <v>2024-10-14 15:01:46</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B580" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C580" t="str">
+        <v>2024-10-15 11:35:20</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B581" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C581" t="str">
+        <v>2024-10-15 15:55:21</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B582" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C582" t="str">
+        <v>2024-10-16 08:58:46</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B583" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C583" t="str">
+        <v>2024-10-16 16:39:34</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B584" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C584" t="str">
+        <v>2024-10-17 13:23:43</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="str">
+        <v>1026</v>
+      </c>
+      <c r="B585" t="str">
+        <v>Johnpaul</v>
+      </c>
+      <c r="C585" t="str">
+        <v>2024-10-22 07:54:45</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="str">
+        <v>1</v>
+      </c>
+      <c r="B586" t="str">
+        <v>1</v>
+      </c>
+      <c r="C586" t="str">
+        <v>2024-10-11 18:41:03</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="str">
+        <v>1</v>
+      </c>
+      <c r="B587" t="str">
+        <v>1</v>
+      </c>
+      <c r="C587" t="str">
+        <v>2024-10-11 18:41:06</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="str">
+        <v>1</v>
+      </c>
+      <c r="B588" t="str">
+        <v>1</v>
+      </c>
+      <c r="C588" t="str">
+        <v>2024-10-15 14:10:47</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="str">
+        <v>1</v>
+      </c>
+      <c r="B589" t="str">
+        <v>1</v>
+      </c>
+      <c r="C589" t="str">
+        <v>2024-10-15 17:21:28</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="str">
+        <v>808</v>
+      </c>
+      <c r="B590" t="str">
+        <v>808</v>
+      </c>
+      <c r="C590" t="str">
+        <v>2024-10-11 09:40:49</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B591" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C591" t="str">
+        <v>2024-10-08 07:16:05</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B592" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C592" t="str">
+        <v>2024-10-08 17:03:22</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B593" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C593" t="str">
+        <v>2024-10-09 06:58:44</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B594" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C594" t="str">
+        <v>2024-10-09 17:03:04</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B595" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C595" t="str">
+        <v>2024-10-10 07:07:36</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B596" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C596" t="str">
+        <v>2024-10-10 17:02:35</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B597" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C597" t="str">
+        <v>2024-10-11 07:13:06</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B598" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C598" t="str">
+        <v>2024-10-11 17:05:31</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B599" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C599" t="str">
+        <v>2024-10-14 07:31:32</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B600" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C600" t="str">
+        <v>2024-10-14 17:02:32</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B601" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C601" t="str">
+        <v>2024-10-15 07:16:18</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B602" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C602" t="str">
+        <v>2024-10-15 17:02:38</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B603" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C603" t="str">
+        <v>2024-10-16 07:23:35</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B604" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C604" t="str">
+        <v>2024-10-16 17:02:40</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B605" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C605" t="str">
+        <v>2024-10-17 07:13:22</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B606" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C606" t="str">
+        <v>2024-10-17 17:02:10</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B607" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C607" t="str">
+        <v>2024-10-18 07:25:44</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B608" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C608" t="str">
+        <v>2024-10-18 17:01:22</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B609" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C609" t="str">
+        <v>2024-10-21 07:12:01</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B610" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C610" t="str">
+        <v>2024-10-21 17:02:34</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B611" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C611" t="str">
+        <v>2024-10-22 07:25:35</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="str">
+        <v>1028</v>
+      </c>
+      <c r="B612" t="str">
+        <v>ANGELICA</v>
+      </c>
+      <c r="C612" t="str">
+        <v>2024-10-22 12:50:33</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="str">
+        <v>603</v>
+      </c>
+      <c r="B613" t="str">
+        <v>603</v>
+      </c>
+      <c r="C613" t="str">
+        <v>2024-10-16 16:33:21</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="str">
+        <v>604</v>
+      </c>
+      <c r="B614" t="str">
+        <v>604</v>
+      </c>
+      <c r="C614" t="str">
+        <v>2024-10-16 16:33:28</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="str">
+        <v>604</v>
+      </c>
+      <c r="B615" t="str">
+        <v>604</v>
+      </c>
+      <c r="C615" t="str">
+        <v>2024-10-16 16:33:30</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="str">
+        <v>605</v>
+      </c>
+      <c r="B616" t="str">
+        <v>605</v>
+      </c>
+      <c r="C616" t="str">
+        <v>2024-10-16 16:33:32</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="str">
+        <v>605</v>
+      </c>
+      <c r="B617" t="str">
+        <v>605</v>
+      </c>
+      <c r="C617" t="str">
+        <v>2024-10-16 16:33:34</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="str">
+        <v>609</v>
+      </c>
+      <c r="B618" t="str">
+        <v>609</v>
+      </c>
+      <c r="C618" t="str">
+        <v>2024-10-09 14:28:16</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="str">
+        <v>609</v>
+      </c>
+      <c r="B619" t="str">
+        <v>609</v>
+      </c>
+      <c r="C619" t="str">
+        <v>2024-10-09 14:28:18</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="str">
+        <v>3009</v>
+      </c>
+      <c r="B620" t="str">
+        <v>3009</v>
+      </c>
+      <c r="C620" t="str">
+        <v>2024-10-09 07:58:54</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="str">
+        <v>3009</v>
+      </c>
+      <c r="B621" t="str">
+        <v>3009</v>
+      </c>
+      <c r="C621" t="str">
+        <v>2024-10-11 07:47:40</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="str">
+        <v>10004</v>
+      </c>
+      <c r="B622" t="str">
+        <v>10004</v>
+      </c>
+      <c r="C622" t="str">
+        <v>2024-10-08 08:58:49</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="str">
+        <v>12</v>
+      </c>
+      <c r="B623" t="str">
+        <v>12</v>
+      </c>
+      <c r="C623" t="str">
+        <v>2024-10-09 11:38:04</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="str">
+        <v>12</v>
+      </c>
+      <c r="B624" t="str">
+        <v>12</v>
+      </c>
+      <c r="C624" t="str">
+        <v>2024-10-14 10:44:55</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="str">
+        <v>12</v>
+      </c>
+      <c r="B625" t="str">
+        <v>12</v>
+      </c>
+      <c r="C625" t="str">
+        <v>2024-10-14 14:26:26</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="str">
+        <v>12</v>
+      </c>
+      <c r="B626" t="str">
+        <v>12</v>
+      </c>
+      <c r="C626" t="str">
+        <v>2024-10-15 12:55:24</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="str">
+        <v>12</v>
+      </c>
+      <c r="B627" t="str">
+        <v>12</v>
+      </c>
+      <c r="C627" t="str">
+        <v>2024-10-16 16:52:11</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="str">
+        <v>12</v>
+      </c>
+      <c r="B628" t="str">
+        <v>12</v>
+      </c>
+      <c r="C628" t="str">
+        <v>2024-10-18 15:14:47</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="str">
+        <v>12</v>
+      </c>
+      <c r="B629" t="str">
+        <v>12</v>
+      </c>
+      <c r="C629" t="str">
+        <v>2024-10-21 11:57:35</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="str">
+        <v>12</v>
+      </c>
+      <c r="B630" t="str">
+        <v>12</v>
+      </c>
+      <c r="C630" t="str">
+        <v>2024-10-22 07:33:47</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="str">
+        <v>3</v>
+      </c>
+      <c r="B631" t="str">
+        <v>3</v>
+      </c>
+      <c r="C631" t="str">
+        <v>2024-10-08 08:03:24</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="str">
+        <v>3</v>
+      </c>
+      <c r="B632" t="str">
+        <v>3</v>
+      </c>
+      <c r="C632" t="str">
+        <v>2024-10-08 21:03:04</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="str">
+        <v>3</v>
+      </c>
+      <c r="B633" t="str">
+        <v>3</v>
+      </c>
+      <c r="C633" t="str">
+        <v>2024-10-09 15:27:37</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="str">
+        <v>3</v>
+      </c>
+      <c r="B634" t="str">
+        <v>3</v>
+      </c>
+      <c r="C634" t="str">
+        <v>2024-10-09 19:39:30</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="str">
+        <v>3</v>
+      </c>
+      <c r="B635" t="str">
+        <v>3</v>
+      </c>
+      <c r="C635" t="str">
+        <v>2024-10-10 18:03:05</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="str">
+        <v>3</v>
+      </c>
+      <c r="B636" t="str">
+        <v>3</v>
+      </c>
+      <c r="C636" t="str">
+        <v>2024-10-10 21:00:44</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="str">
+        <v>3</v>
+      </c>
+      <c r="B637" t="str">
+        <v>3</v>
+      </c>
+      <c r="C637" t="str">
+        <v>2024-10-11 15:13:22</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="str">
+        <v>3</v>
+      </c>
+      <c r="B638" t="str">
+        <v>3</v>
+      </c>
+      <c r="C638" t="str">
+        <v>2024-10-11 19:59:53</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="str">
+        <v>3</v>
+      </c>
+      <c r="B639" t="str">
+        <v>3</v>
+      </c>
+      <c r="C639" t="str">
+        <v>2024-10-14 09:20:12</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="str">
+        <v>3</v>
+      </c>
+      <c r="B640" t="str">
+        <v>3</v>
+      </c>
+      <c r="C640" t="str">
+        <v>2024-10-14 20:53:45</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="str">
+        <v>3</v>
+      </c>
+      <c r="B641" t="str">
+        <v>3</v>
+      </c>
+      <c r="C641" t="str">
+        <v>2024-10-15 14:49:24</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="str">
+        <v>3</v>
+      </c>
+      <c r="B642" t="str">
+        <v>3</v>
+      </c>
+      <c r="C642" t="str">
+        <v>2024-10-15 19:05:27</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="str">
+        <v>3</v>
+      </c>
+      <c r="B643" t="str">
+        <v>3</v>
+      </c>
+      <c r="C643" t="str">
+        <v>2024-10-16 07:53:22</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="str">
+        <v>3</v>
+      </c>
+      <c r="B644" t="str">
+        <v>3</v>
+      </c>
+      <c r="C644" t="str">
+        <v>2024-10-16 19:59:15</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="str">
+        <v>3</v>
+      </c>
+      <c r="B645" t="str">
+        <v>3</v>
+      </c>
+      <c r="C645" t="str">
+        <v>2024-10-17 19:10:33</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="str">
+        <v>3</v>
+      </c>
+      <c r="B646" t="str">
+        <v>3</v>
+      </c>
+      <c r="C646" t="str">
+        <v>2024-10-17 19:10:35</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="str">
+        <v>3</v>
+      </c>
+      <c r="B647" t="str">
+        <v>3</v>
+      </c>
+      <c r="C647" t="str">
+        <v>2024-10-18 12:00:47</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="str">
+        <v>3</v>
+      </c>
+      <c r="B648" t="str">
+        <v>3</v>
+      </c>
+      <c r="C648" t="str">
+        <v>2024-10-18 18:46:35</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="str">
+        <v>3</v>
+      </c>
+      <c r="B649" t="str">
+        <v>3</v>
+      </c>
+      <c r="C649" t="str">
+        <v>2024-10-19 05:54:40</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="str">
+        <v>3</v>
+      </c>
+      <c r="B650" t="str">
+        <v>3</v>
+      </c>
+      <c r="C650" t="str">
+        <v>2024-10-19 11:05:20</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="str">
+        <v>3</v>
+      </c>
+      <c r="B651" t="str">
+        <v>3</v>
+      </c>
+      <c r="C651" t="str">
+        <v>2024-10-21 14:15:28</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="str">
+        <v>3</v>
+      </c>
+      <c r="B652" t="str">
+        <v>3</v>
+      </c>
+      <c r="C652" t="str">
+        <v>2024-10-21 21:01:50</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="str">
+        <v>3</v>
+      </c>
+      <c r="B653" t="str">
+        <v>3</v>
+      </c>
+      <c r="C653" t="str">
+        <v>2024-10-22 12:54:19</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="str">
+        <v>601</v>
+      </c>
+      <c r="B654" t="str">
+        <v>601</v>
+      </c>
+      <c r="C654" t="str">
+        <v>2024-10-14 10:39:07</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="str">
+        <v>602</v>
+      </c>
+      <c r="B655" t="str">
+        <v>602</v>
+      </c>
+      <c r="C655" t="str">
+        <v>2024-10-16 10:55:04</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="str">
+        <v>602</v>
+      </c>
+      <c r="B656" t="str">
+        <v>602</v>
+      </c>
+      <c r="C656" t="str">
+        <v>2024-10-16 10:57:15</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="str">
+        <v>4003</v>
+      </c>
+      <c r="B657" t="str">
+        <v>4003</v>
+      </c>
+      <c r="C657" t="str">
+        <v>2024-10-11 07:24:51</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="str">
+        <v>4003</v>
+      </c>
+      <c r="B658" t="str">
+        <v>4003</v>
+      </c>
+      <c r="C658" t="str">
+        <v>2024-10-17 07:49:23</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="str">
+        <v>4003</v>
+      </c>
+      <c r="B659" t="str">
+        <v>4003</v>
+      </c>
+      <c r="C659" t="str">
+        <v>2024-10-18 10:48:20</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="str">
+        <v>4003</v>
+      </c>
+      <c r="B660" t="str">
+        <v>4003</v>
+      </c>
+      <c r="C660" t="str">
+        <v>2024-10-18 15:42:29</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C215"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C660"/>
   </ignoredErrors>
 </worksheet>
 </file>